--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3067583.119827571</v>
+        <v>3086238.074564504</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1323555.214353083</v>
+        <v>1323555.214353082</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2846521.858350739</v>
+        <v>2846521.85835074</v>
       </c>
     </row>
     <row r="9">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>11.91464376220976</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.30273751513505</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -814,76 +814,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C4" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="D4" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>6.602605461619507</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.26809192273229</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S6" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="T6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="U6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="V6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>15.30273751513505</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15.30273751513505</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.487951988786147</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>13.47865120333094</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H9" t="n">
         <v>15.30273751513505</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1294,64 +1294,64 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>244.7608111762292</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.924941904122587</v>
       </c>
       <c r="E11" t="n">
-        <v>172.69496858937</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>286.3639651469331</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>294.0341932826902</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>211.2155882917372</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>60.80024458449157</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.27007384814264</v>
       </c>
       <c r="T11" t="n">
         <v>99.27234939546807</v>
@@ -1427,16 +1427,16 @@
         <v>130.7730552220448</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>207.2401778753565</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.7288881226346</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>249.2190200836907</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>265.7258580612752</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>46.02110305508896</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>52.19641839353736</v>
       </c>
       <c r="D12" t="n">
-        <v>26.93298496986037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>37.13299986062256</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.938773434812</v>
+        <v>90.7317318780173</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>75.4613772903225</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>163.0088956156737</v>
+        <v>43.65315327323434</v>
       </c>
       <c r="T12" t="n">
         <v>198.5333274386886</v>
       </c>
       <c r="U12" t="n">
-        <v>105.4026736093281</v>
+        <v>225.9147542041065</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>131.1829025661412</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1546,7 +1546,7 @@
         <v>38.69819711573659</v>
       </c>
       <c r="I13" t="n">
-        <v>24.73400988644045</v>
+        <v>24.73400988644073</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.52409026542924</v>
+        <v>41.52409026542886</v>
       </c>
       <c r="S13" t="n">
         <v>97.59103346908093</v>
@@ -1610,19 +1610,19 @@
         <v>244.7608111762292</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.1709610259046</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.4182894774834</v>
       </c>
       <c r="F14" t="n">
-        <v>6.230816670706858</v>
+        <v>15.89134774174628</v>
       </c>
       <c r="G14" t="n">
-        <v>294.0341932826902</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>211.2155882917372</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46.02110305508896</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>52.19641839353736</v>
       </c>
       <c r="D15" t="n">
         <v>26.93298496986037</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.938773434812</v>
+        <v>102.9173405605697</v>
       </c>
       <c r="H15" t="n">
         <v>108.3264719122257</v>
       </c>
       <c r="I15" t="n">
-        <v>75.4613772903225</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.65315327323434</v>
+        <v>164.1652338680127</v>
       </c>
       <c r="T15" t="n">
-        <v>78.02124684391022</v>
+        <v>198.5333274386886</v>
       </c>
       <c r="U15" t="n">
-        <v>116.4319440395418</v>
+        <v>105.4026736093281</v>
       </c>
       <c r="V15" t="n">
         <v>112.2885065546469</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>131.1829025661412</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1844,13 +1844,13 @@
         <v>262.2217610687022</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>244.7608111762292</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>261.4182894774834</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>286.3639651469331</v>
@@ -1859,7 +1859,7 @@
         <v>294.0341932826902</v>
       </c>
       <c r="H17" t="n">
-        <v>211.2155882917372</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>49.52840467715696</v>
       </c>
       <c r="T17" t="n">
-        <v>99.27234939546807</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>130.7730552220448</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>228.7288881226346</v>
       </c>
       <c r="X17" t="n">
-        <v>81.88493203337698</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>265.7258580612752</v>
@@ -1929,19 +1929,19 @@
         <v>26.93298496986037</v>
       </c>
       <c r="E18" t="n">
-        <v>156.9219003372796</v>
+        <v>37.13299986062256</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>24.5571317986055</v>
       </c>
       <c r="G18" t="n">
-        <v>16.42669284003364</v>
+        <v>136.938773434812</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>44.32752318633439</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>75.4613772903225</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>164.1652338680127</v>
       </c>
       <c r="T18" t="n">
-        <v>198.5333274386886</v>
+        <v>78.02124684391022</v>
       </c>
       <c r="U18" t="n">
-        <v>105.4026736093281</v>
+        <v>225.9147542041065</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>131.1829025661412</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>85.17061518252598</v>
       </c>
     </row>
     <row r="19">
@@ -2081,13 +2081,13 @@
         <v>262.2217610687022</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>244.7608111762292</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>234.1709610259046</v>
       </c>
       <c r="E20" t="n">
-        <v>261.4182894774834</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>286.3639651469331</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>120.3570368443534</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>168.5694121809779</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>265.7258580612752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>46.02110305508896</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>26.93298496986037</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>37.13299986062256</v>
       </c>
       <c r="F21" t="n">
         <v>24.5571317986055</v>
       </c>
       <c r="G21" t="n">
-        <v>27.45596327024726</v>
+        <v>16.42669284003364</v>
       </c>
       <c r="H21" t="n">
         <v>108.3264719122257</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>11.02927043021366</v>
       </c>
       <c r="S21" t="n">
         <v>43.65315327323434</v>
       </c>
       <c r="T21" t="n">
-        <v>78.02124684391022</v>
+        <v>198.5333274386886</v>
       </c>
       <c r="U21" t="n">
-        <v>105.4026736093281</v>
+        <v>225.9147542041065</v>
       </c>
       <c r="V21" t="n">
-        <v>112.2885065546469</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2321,22 +2321,22 @@
         <v>244.7608111762292</v>
       </c>
       <c r="D23" t="n">
-        <v>234.1709610259046</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>261.4182894774834</v>
       </c>
       <c r="F23" t="n">
-        <v>286.3639651469331</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>294.0341932826902</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>60.80024458449157</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>71.27007384814264</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>84.53833320042712</v>
+        <v>178.9687476579401</v>
       </c>
       <c r="W23" t="n">
         <v>228.7288881226346</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46.02110305508896</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>26.93298496986037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>37.13299986062256</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>24.5571317986055</v>
       </c>
       <c r="G24" t="n">
         <v>136.938773434812</v>
       </c>
       <c r="H24" t="n">
-        <v>108.3264719122257</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>75.4613772903225</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>75.02821915610471</v>
       </c>
       <c r="S24" t="n">
-        <v>164.1652338680127</v>
+        <v>156.9167625711698</v>
       </c>
       <c r="T24" t="n">
-        <v>198.5333274386886</v>
+        <v>78.02124684391022</v>
       </c>
       <c r="U24" t="n">
-        <v>155.3905142994936</v>
+        <v>225.9147542041065</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>85.17061518252598</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>229.0340921776568</v>
       </c>
       <c r="C26" t="n">
-        <v>244.7608111762292</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>234.1709610259046</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>261.4182894774834</v>
       </c>
       <c r="F26" t="n">
-        <v>286.3639651469331</v>
+        <v>286.363965146933</v>
       </c>
       <c r="G26" t="n">
         <v>294.0341932826902</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>211.2155882917372</v>
       </c>
       <c r="I26" t="n">
-        <v>60.80024458449159</v>
+        <v>60.80024458449155</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.27007384814267</v>
+        <v>71.27007384814263</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>99.27234939546805</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>130.7730552220448</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>207.2401778753565</v>
       </c>
       <c r="W26" t="n">
-        <v>228.7288881226347</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>249.2190200836907</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>186.3814406150794</v>
+        <v>265.7258580612752</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>50.52508230658057</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>16.42669284003367</v>
+        <v>136.938773434812</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>108.3264719122257</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>75.4613772903225</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>111.4329011324964</v>
+        <v>43.65315327323432</v>
       </c>
       <c r="T27" t="n">
         <v>198.5333274386886</v>
@@ -2694,13 +2694,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>131.1829025661412</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>85.26090460869908</v>
       </c>
       <c r="Y27" t="n">
-        <v>85.17061518252601</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.31989958715894</v>
+        <v>59.3198995871589</v>
       </c>
       <c r="C28" t="n">
-        <v>46.73474050384948</v>
+        <v>46.73474050384944</v>
       </c>
       <c r="D28" t="n">
-        <v>28.103392423434</v>
+        <v>28.10339242343396</v>
       </c>
       <c r="E28" t="n">
-        <v>25.92188205179082</v>
+        <v>25.92188205179077</v>
       </c>
       <c r="F28" t="n">
-        <v>24.90896742815289</v>
+        <v>24.90896742815285</v>
       </c>
       <c r="G28" t="n">
-        <v>47.13957521801404</v>
+        <v>47.13957521801425</v>
       </c>
       <c r="H28" t="n">
-        <v>38.6981971157366</v>
+        <v>38.69819711573656</v>
       </c>
       <c r="I28" t="n">
-        <v>24.73400988644066</v>
+        <v>24.73400988644043</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.52409026542812</v>
+        <v>41.5240902654288</v>
       </c>
       <c r="S28" t="n">
-        <v>97.59103346908097</v>
+        <v>97.59103346908093</v>
       </c>
       <c r="T28" t="n">
         <v>105.9836718656559</v>
       </c>
       <c r="U28" t="n">
-        <v>165.7884402046765</v>
+        <v>165.7884402046764</v>
       </c>
       <c r="V28" t="n">
         <v>131.6255627290496</v>
@@ -2779,7 +2779,7 @@
         <v>105.1975747942588</v>
       </c>
       <c r="Y28" t="n">
-        <v>98.07257275731644</v>
+        <v>98.07257275731639</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>252.5695088589278</v>
+        <v>252.5695088589279</v>
       </c>
       <c r="C29" t="n">
         <v>235.1085589664548</v>
       </c>
       <c r="D29" t="n">
-        <v>58.95081169217132</v>
+        <v>224.5187088161302</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>251.7660372677091</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>276.7117129371587</v>
       </c>
       <c r="G29" t="n">
         <v>284.3819410729159</v>
       </c>
       <c r="H29" t="n">
-        <v>201.5633360819628</v>
+        <v>45.30305334384854</v>
       </c>
       <c r="I29" t="n">
-        <v>51.14799237471721</v>
+        <v>51.14799237471723</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>121.1208030122704</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>197.5879256655822</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>219.0766359128603</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>239.5667678739163</v>
       </c>
       <c r="Y29" t="n">
-        <v>256.0736058515008</v>
+        <v>256.0736058515009</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>63.81929338202492</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2880,7 +2880,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>14.90487958883116</v>
       </c>
       <c r="G30" t="n">
         <v>136.938773434812</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>75.4613772903225</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>75.02821915610471</v>
       </c>
       <c r="S30" t="n">
-        <v>34.00090106345998</v>
+        <v>164.1652338680127</v>
       </c>
       <c r="T30" t="n">
         <v>198.5333274386886</v>
       </c>
       <c r="U30" t="n">
-        <v>95.75042139955374</v>
+        <v>117.4587067320338</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>75.51836297275165</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.66764737738455</v>
+        <v>49.66764737738458</v>
       </c>
       <c r="C31" t="n">
-        <v>37.08248829407509</v>
+        <v>37.08248829407512</v>
       </c>
       <c r="D31" t="n">
-        <v>18.45114021365961</v>
+        <v>18.45114021365964</v>
       </c>
       <c r="E31" t="n">
-        <v>16.26962984201643</v>
+        <v>16.26962984201646</v>
       </c>
       <c r="F31" t="n">
-        <v>15.2567152183785</v>
+        <v>15.25671521837853</v>
       </c>
       <c r="G31" t="n">
-        <v>37.48732300823965</v>
+        <v>37.48732300823968</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04594490596223</v>
+        <v>29.04594490596226</v>
       </c>
       <c r="I31" t="n">
-        <v>15.08175767666609</v>
+        <v>15.08175767666612</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>31.8718380556545</v>
+        <v>31.87183805565453</v>
       </c>
       <c r="S31" t="n">
-        <v>87.93878125930657</v>
+        <v>87.93878125930659</v>
       </c>
       <c r="T31" t="n">
-        <v>96.33141965588155</v>
+        <v>96.33141965588158</v>
       </c>
       <c r="U31" t="n">
         <v>156.1361879949018</v>
@@ -3013,10 +3013,10 @@
         <v>156.3586655320383</v>
       </c>
       <c r="X31" t="n">
-        <v>95.54532258448441</v>
+        <v>95.54532258448444</v>
       </c>
       <c r="Y31" t="n">
-        <v>88.42032054754205</v>
+        <v>88.42032054754208</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.893852082784542</v>
+        <v>4.893852082784576</v>
       </c>
       <c r="T32" t="n">
-        <v>32.89612763011002</v>
+        <v>32.89612763010974</v>
       </c>
       <c r="U32" t="n">
-        <v>64.39683345668622</v>
+        <v>64.39683345668668</v>
       </c>
       <c r="V32" t="n">
         <v>140.8639561099985</v>
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89.38341320324167</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.938773434812</v>
       </c>
       <c r="H33" t="n">
-        <v>108.3264719122257</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>75.4613772903225</v>
@@ -3156,7 +3156,7 @@
         <v>75.02821915610471</v>
       </c>
       <c r="S33" t="n">
-        <v>164.1652338680127</v>
+        <v>54.25251142128707</v>
       </c>
       <c r="T33" t="n">
         <v>198.5333274386886</v>
@@ -3168,7 +3168,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>64.80668080078317</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3269,19 +3269,19 @@
         <v>178.3845894108711</v>
       </c>
       <c r="D35" t="n">
-        <v>7.825856367058848</v>
+        <v>167.7947392605465</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>195.0420677121253</v>
       </c>
       <c r="F35" t="n">
         <v>219.987743381575</v>
       </c>
       <c r="G35" t="n">
-        <v>227.6579715173322</v>
+        <v>17.48638743809811</v>
       </c>
       <c r="H35" t="n">
-        <v>144.8393665263791</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>96.15416072969025</v>
+        <v>136.938773434812</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>108.3264719122257</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>75.4613772903225</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>75.02821915610471</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>164.1652338680127</v>
       </c>
       <c r="T36" t="n">
         <v>198.5333274386886</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>18.88468284334104</v>
+        <v>19.15345543826871</v>
       </c>
       <c r="Y36" t="n">
         <v>18.79439341716792</v>
@@ -3503,16 +3503,16 @@
         <v>195.8455393033441</v>
       </c>
       <c r="C38" t="n">
-        <v>178.3845894108711</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>167.7947392605465</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>195.0420677121253</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>219.987743381575</v>
       </c>
       <c r="G38" t="n">
         <v>227.6579715173322</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.893852082784587</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>32.89612763011002</v>
+        <v>28.95835777869893</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>64.39683345668675</v>
       </c>
       <c r="V38" t="n">
-        <v>70.23758234264687</v>
+        <v>140.8639561099985</v>
       </c>
       <c r="W38" t="n">
         <v>162.3526663572766</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>27.03454389523915</v>
+        <v>60.16256540210057</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.938773434812</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>108.3264719122257</v>
       </c>
       <c r="I39" t="n">
         <v>75.4613772903225</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>75.02821915610471</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.5333274386886</v>
+        <v>11.64502507855217</v>
       </c>
       <c r="U39" t="n">
         <v>225.9147542041065</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>316.3576198981225</v>
+        <v>316.3576198981226</v>
       </c>
       <c r="C41" t="n">
-        <v>298.8966700056495</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>288.3068198553249</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>348.1700521121105</v>
+        <v>348.1700521121106</v>
       </c>
       <c r="H41" t="n">
-        <v>181.5001539500855</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>114.9361034139119</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>35.97468719622621</v>
+        <v>35.97468719622626</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>261.3760367047768</v>
+        <v>72.17202841680422</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>282.864746952055</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>303.354878913111</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.8617168906955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>100.1569618845093</v>
       </c>
       <c r="C42" t="n">
         <v>106.3322772229577</v>
       </c>
       <c r="D42" t="n">
-        <v>81.06884379928067</v>
+        <v>81.06884379928071</v>
       </c>
       <c r="E42" t="n">
-        <v>91.26885869004286</v>
+        <v>91.2688586900429</v>
       </c>
       <c r="F42" t="n">
-        <v>78.6929906280258</v>
+        <v>78.69299062802584</v>
       </c>
       <c r="G42" t="n">
-        <v>70.56255166945394</v>
+        <v>70.56255166945398</v>
       </c>
       <c r="H42" t="n">
-        <v>41.95025014686757</v>
+        <v>41.95025014686761</v>
       </c>
       <c r="I42" t="n">
-        <v>9.085155524964414</v>
+        <v>9.085155524964456</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.651997390746626</v>
+        <v>8.651997390746669</v>
       </c>
       <c r="S42" t="n">
-        <v>119.472603928328</v>
+        <v>97.78901210265468</v>
       </c>
       <c r="T42" t="n">
-        <v>132.1571056733305</v>
+        <v>198.5333274386886</v>
       </c>
       <c r="U42" t="n">
         <v>225.9147542041065</v>
@@ -3879,13 +3879,13 @@
         <v>166.4243653840672</v>
       </c>
       <c r="W42" t="n">
-        <v>185.3187613955615</v>
+        <v>185.3187613955616</v>
       </c>
       <c r="X42" t="n">
         <v>139.3967634381194</v>
       </c>
       <c r="Y42" t="n">
-        <v>139.3064740119463</v>
+        <v>160.9900658376194</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113.4557584165792</v>
+        <v>113.4557584165793</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.992783672702647</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>23.33337592578749</v>
+        <v>95.6599490948492</v>
       </c>
       <c r="S43" t="n">
-        <v>151.7268922985012</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>15.59419250918273</v>
       </c>
       <c r="V43" t="n">
-        <v>185.7614215584699</v>
+        <v>185.76142155847</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>220.146776571233</v>
       </c>
       <c r="X43" t="n">
-        <v>159.3334336236791</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.2084315867367</v>
+        <v>152.2084315867368</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.0098721078969</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>297.9590720650992</v>
       </c>
       <c r="E44" t="n">
         <v>325.2064005166781</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>350.1520761861277</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>357.8223043218849</v>
       </c>
       <c r="H44" t="n">
         <v>275.0036993309319</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>124.5883556236862</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>31.40502871325853</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>230.3928345174448</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>292.5169991618293</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>313.0071311228853</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,22 +4059,22 @@
         <v>115.984529432732</v>
       </c>
       <c r="D45" t="n">
-        <v>90.72109600905506</v>
+        <v>90.72109600905505</v>
       </c>
       <c r="E45" t="n">
-        <v>100.9211108998173</v>
+        <v>100.9211108998172</v>
       </c>
       <c r="F45" t="n">
-        <v>88.34524283780019</v>
+        <v>88.34524283780017</v>
       </c>
       <c r="G45" t="n">
-        <v>80.21480387922833</v>
+        <v>80.21480387922831</v>
       </c>
       <c r="H45" t="n">
-        <v>51.60250235664196</v>
+        <v>51.60250235664194</v>
       </c>
       <c r="I45" t="n">
-        <v>18.7374077347388</v>
+        <v>18.73740773473879</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>18.30424960052101</v>
+        <v>18.304249600521</v>
       </c>
       <c r="S45" t="n">
-        <v>107.4412643124291</v>
+        <v>107.441264312429</v>
       </c>
       <c r="T45" t="n">
         <v>141.8093578831049</v>
       </c>
       <c r="U45" t="n">
-        <v>169.1907846485221</v>
+        <v>169.1907846485227</v>
       </c>
       <c r="V45" t="n">
-        <v>176.0766175938416</v>
+        <v>176.0766175938415</v>
       </c>
       <c r="W45" t="n">
         <v>194.9710136053359</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.64447620204325</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>105.3122013046235</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.8128221245162</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.5765512438708</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>195.4136737682443</v>
       </c>
       <c r="W46" t="n">
         <v>229.7990287810073</v>
       </c>
       <c r="X46" t="n">
-        <v>168.9856858334535</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.8606837965111</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.69701961884617</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="C2" t="n">
-        <v>35.69701961884617</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="D2" t="n">
-        <v>35.69701961884617</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="E2" t="n">
-        <v>35.69701961884617</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>28.71652332176112</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>13.25921270041258</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>13.25921270041258</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
@@ -4337,10 +4337,10 @@
         <v>31.52363928117821</v>
       </c>
       <c r="M2" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N2" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O2" t="n">
         <v>61.2109500605402</v>
@@ -4352,28 +4352,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.69701961884617</v>
+        <v>35.66202407096459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F3" t="n">
-        <v>48.35028351804213</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="G3" t="n">
-        <v>32.89297289669359</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="H3" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="I3" t="n">
         <v>1.978351653996518</v>
@@ -4413,13 +4413,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L3" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M3" t="n">
-        <v>1.224219001210804</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N3" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O3" t="n">
         <v>30.9115297805728</v>
@@ -4431,28 +4431,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="U3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C4" t="n">
-        <v>47.59615086525642</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
         <v>1.224219001210804</v>
@@ -4531,7 +4531,7 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C5" t="n">
-        <v>30.29632881784312</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="D5" t="n">
-        <v>30.29632881784312</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="E5" t="n">
-        <v>30.29632881784312</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="F5" t="n">
-        <v>23.35082806863965</v>
+        <v>44.17383394310966</v>
       </c>
       <c r="G5" t="n">
-        <v>7.893517447291114</v>
+        <v>28.71652332176112</v>
       </c>
       <c r="H5" t="n">
-        <v>1.224219001210804</v>
+        <v>28.71652332176112</v>
       </c>
       <c r="I5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L5" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N5" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O5" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H6" t="n">
         <v>1.224219001210804</v>
@@ -4653,43 +4653,43 @@
         <v>1.224219001210804</v>
       </c>
       <c r="M6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N6" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O6" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P6" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S6" t="n">
-        <v>47.59615086525642</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T6" t="n">
-        <v>32.13884024390788</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U6" t="n">
+        <v>30.29632881784312</v>
+      </c>
+      <c r="V6" t="n">
+        <v>30.29632881784312</v>
+      </c>
+      <c r="W6" t="n">
+        <v>30.29632881784312</v>
+      </c>
+      <c r="X6" t="n">
         <v>16.68152962255934</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.224219001210804</v>
-      </c>
       <c r="Y6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C7" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D7" t="n">
         <v>16.68152962255934</v>
@@ -4735,7 +4735,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4747,28 +4747,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U7" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V7" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W7" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X7" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.59615086525642</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.75363943919166</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="C8" t="n">
-        <v>45.75363943919166</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="D8" t="n">
-        <v>45.75363943919166</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="E8" t="n">
-        <v>32.13884024390788</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="F8" t="n">
-        <v>16.68152962255934</v>
+        <v>20.20471344961605</v>
       </c>
       <c r="G8" t="n">
-        <v>1.224219001210804</v>
+        <v>4.747402828267518</v>
       </c>
       <c r="H8" t="n">
-        <v>1.224219001210804</v>
+        <v>4.747402828267518</v>
       </c>
       <c r="I8" t="n">
         <v>1.224219001210804</v>
@@ -4805,49 +4805,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
         <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="S8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="T8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="U8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="V8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="W8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="X8" t="n">
-        <v>45.75363943919166</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.75363943919166</v>
+        <v>35.66202407096459</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C9" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D9" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E9" t="n">
-        <v>16.68152962255934</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="F9" t="n">
-        <v>16.68152962255934</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="G9" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4887,10 +4887,10 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N9" t="n">
         <v>30.9115297805728</v>
@@ -4920,13 +4920,13 @@
         <v>45.75363943919166</v>
       </c>
       <c r="W9" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X9" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D10" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
         <v>1.224219001210804</v>
@@ -4966,13 +4966,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4981,31 +4981,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T10" t="n">
-        <v>47.59615086525642</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U10" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1319.021969063261</v>
+        <v>286.512859981342</v>
       </c>
       <c r="C11" t="n">
-        <v>1071.788826461009</v>
+        <v>39.27971737909036</v>
       </c>
       <c r="D11" t="n">
-        <v>1071.788826461009</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="E11" t="n">
-        <v>897.3494642495243</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="F11" t="n">
-        <v>608.0929337980767</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="G11" t="n">
-        <v>311.0886981589956</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="H11" t="n">
-        <v>97.73961907643276</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="I11" t="n">
         <v>36.32523060724936</v>
@@ -5066,25 +5066,25 @@
         <v>1816.261530362468</v>
       </c>
       <c r="S11" t="n">
-        <v>1816.261530362468</v>
+        <v>1744.271556778486</v>
       </c>
       <c r="T11" t="n">
-        <v>1715.986429963005</v>
+        <v>1643.996456379023</v>
       </c>
       <c r="U11" t="n">
-        <v>1583.892434789223</v>
+        <v>1511.90246120524</v>
       </c>
       <c r="V11" t="n">
-        <v>1583.892434789223</v>
+        <v>1302.56894819983</v>
       </c>
       <c r="W11" t="n">
-        <v>1583.892434789223</v>
+        <v>1071.529667267876</v>
       </c>
       <c r="X11" t="n">
-        <v>1583.892434789223</v>
+        <v>819.7932833449556</v>
       </c>
       <c r="Y11" t="n">
-        <v>1583.892434789223</v>
+        <v>551.3833257073039</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>636.5715406449434</v>
+        <v>513.6741478700775</v>
       </c>
       <c r="C12" t="n">
-        <v>462.1185113638164</v>
+        <v>460.9504929271105</v>
       </c>
       <c r="D12" t="n">
-        <v>434.9134760407251</v>
+        <v>312.0160832658592</v>
       </c>
       <c r="E12" t="n">
-        <v>397.4053953734295</v>
+        <v>274.5080025985637</v>
       </c>
       <c r="F12" t="n">
-        <v>250.8708374003145</v>
+        <v>127.9734446254486</v>
       </c>
       <c r="G12" t="n">
-        <v>112.5488440318175</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="H12" t="n">
-        <v>112.5488440318175</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="I12" t="n">
         <v>36.32523060724936</v>
@@ -5121,16 +5121,16 @@
         <v>73.44311750521973</v>
       </c>
       <c r="K12" t="n">
-        <v>73.44311750521973</v>
+        <v>263.5043413787027</v>
       </c>
       <c r="L12" t="n">
-        <v>221.8725883716022</v>
+        <v>580.4695081752518</v>
       </c>
       <c r="M12" t="n">
-        <v>643.735209382409</v>
+        <v>1002.332129186059</v>
       </c>
       <c r="N12" t="n">
-        <v>1092.470292067423</v>
+        <v>1436.55954695882</v>
       </c>
       <c r="O12" t="n">
         <v>1436.55954695882</v>
@@ -5145,25 +5145,25 @@
         <v>1816.261530362468</v>
       </c>
       <c r="S12" t="n">
-        <v>1651.606080245626</v>
+        <v>1772.16743614708</v>
       </c>
       <c r="T12" t="n">
-        <v>1451.067365661092</v>
+        <v>1571.628721562546</v>
       </c>
       <c r="U12" t="n">
-        <v>1344.600018580963</v>
+        <v>1343.432000144257</v>
       </c>
       <c r="V12" t="n">
-        <v>1109.44791034922</v>
+        <v>1108.279891912514</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9399279591782</v>
+        <v>854.0425351843123</v>
       </c>
       <c r="X12" t="n">
-        <v>769.0884277536454</v>
+        <v>646.1910349787795</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.0575033268515</v>
+        <v>560.1601105519856</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>274.9522655844394</v>
+        <v>274.9522655844397</v>
       </c>
       <c r="C13" t="n">
-        <v>227.7454569946925</v>
+        <v>227.7454569946927</v>
       </c>
       <c r="D13" t="n">
-        <v>199.3581919205167</v>
+        <v>199.358191920517</v>
       </c>
       <c r="E13" t="n">
-        <v>173.1744726762836</v>
+        <v>173.1744726762839</v>
       </c>
       <c r="F13" t="n">
-        <v>148.0138995165333</v>
+        <v>148.0138995165335</v>
       </c>
       <c r="G13" t="n">
-        <v>100.3981669730848</v>
+        <v>100.398166973085</v>
       </c>
       <c r="H13" t="n">
-        <v>61.30907897739122</v>
+        <v>61.30907897739151</v>
       </c>
       <c r="I13" t="n">
         <v>36.32523060724936</v>
@@ -5224,25 +5224,25 @@
         <v>1213.931733411722</v>
       </c>
       <c r="S13" t="n">
-        <v>1115.354931927801</v>
+        <v>1115.354931927802</v>
       </c>
       <c r="T13" t="n">
-        <v>1008.300717922088</v>
+        <v>1008.300717922089</v>
       </c>
       <c r="U13" t="n">
-        <v>840.8376470082741</v>
+        <v>840.8376470082744</v>
       </c>
       <c r="V13" t="n">
-        <v>707.8825331405471</v>
+        <v>707.8825331405475</v>
       </c>
       <c r="W13" t="n">
-        <v>540.1947374417465</v>
+        <v>540.1947374417468</v>
       </c>
       <c r="X13" t="n">
-        <v>433.9345608818892</v>
+        <v>433.9345608818895</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.8713560765191</v>
+        <v>334.8713560765194</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>552.9722995417285</v>
       </c>
       <c r="D14" t="n">
-        <v>552.9722995417285</v>
+        <v>316.435975273138</v>
       </c>
       <c r="E14" t="n">
-        <v>552.9722995417285</v>
+        <v>52.37709701305369</v>
       </c>
       <c r="F14" t="n">
-        <v>546.6785453288933</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="G14" t="n">
-        <v>249.6743096898122</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="H14" t="n">
         <v>36.32523060724936</v>
@@ -5276,16 +5276,16 @@
         <v>36.32523060724936</v>
       </c>
       <c r="J14" t="n">
-        <v>88.05730075690222</v>
+        <v>88.05730075690224</v>
       </c>
       <c r="K14" t="n">
-        <v>286.3350680031406</v>
+        <v>286.3350680031407</v>
       </c>
       <c r="L14" t="n">
-        <v>584.5927987338376</v>
+        <v>584.592798733838</v>
       </c>
       <c r="M14" t="n">
-        <v>933.0685377569675</v>
+        <v>933.0685377569678</v>
       </c>
       <c r="N14" t="n">
         <v>1272.550981011847</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>745.9922193441612</v>
+        <v>513.6741478700771</v>
       </c>
       <c r="C15" t="n">
-        <v>571.5391900630342</v>
+        <v>460.9504929271101</v>
       </c>
       <c r="D15" t="n">
-        <v>544.334154739943</v>
+        <v>433.7454576040188</v>
       </c>
       <c r="E15" t="n">
-        <v>506.8260740726474</v>
+        <v>396.2373769367233</v>
       </c>
       <c r="F15" t="n">
-        <v>360.2915160995324</v>
+        <v>249.7028189636083</v>
       </c>
       <c r="G15" t="n">
-        <v>221.9695227310354</v>
+        <v>145.7459093064672</v>
       </c>
       <c r="H15" t="n">
-        <v>112.5488440318175</v>
+        <v>36.32523060724936</v>
       </c>
       <c r="I15" t="n">
         <v>36.32523060724936</v>
@@ -5364,16 +5364,16 @@
         <v>390.4082843017688</v>
       </c>
       <c r="M15" t="n">
-        <v>812.2709053125757</v>
+        <v>643.735209382409</v>
       </c>
       <c r="N15" t="n">
-        <v>1261.00598799759</v>
+        <v>1092.470292067423</v>
       </c>
       <c r="O15" t="n">
-        <v>1605.095242888987</v>
+        <v>1436.55954695882</v>
       </c>
       <c r="P15" t="n">
-        <v>1816.261530362468</v>
+        <v>1695.718441776331</v>
       </c>
       <c r="Q15" t="n">
         <v>1816.261530362468</v>
@@ -5382,25 +5382,25 @@
         <v>1816.261530362468</v>
       </c>
       <c r="S15" t="n">
-        <v>1772.16743614708</v>
+        <v>1650.43806180892</v>
       </c>
       <c r="T15" t="n">
-        <v>1693.358095900706</v>
+        <v>1449.899347224386</v>
       </c>
       <c r="U15" t="n">
-        <v>1575.75007161834</v>
+        <v>1343.432000144256</v>
       </c>
       <c r="V15" t="n">
-        <v>1462.327337724758</v>
+        <v>1230.009266250674</v>
       </c>
       <c r="W15" t="n">
-        <v>1208.089980996556</v>
+        <v>1097.501283860632</v>
       </c>
       <c r="X15" t="n">
-        <v>1000.238480791023</v>
+        <v>889.6497836550991</v>
       </c>
       <c r="Y15" t="n">
-        <v>792.4781820260692</v>
+        <v>681.8894848901452</v>
       </c>
     </row>
     <row r="16">
@@ -5440,7 +5440,7 @@
         <v>223.2460321161519</v>
       </c>
       <c r="L16" t="n">
-        <v>419.8107923051452</v>
+        <v>419.8107923051451</v>
       </c>
       <c r="M16" t="n">
         <v>630.9643933675243</v>
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1099.993954040425</v>
+        <v>869.8191393000297</v>
       </c>
       <c r="C17" t="n">
-        <v>1099.993954040425</v>
+        <v>622.585996697778</v>
       </c>
       <c r="D17" t="n">
-        <v>1099.993954040425</v>
+        <v>622.585996697778</v>
       </c>
       <c r="E17" t="n">
-        <v>835.9350757803409</v>
+        <v>622.585996697778</v>
       </c>
       <c r="F17" t="n">
-        <v>546.6785453288933</v>
+        <v>333.3294662463304</v>
       </c>
       <c r="G17" t="n">
-        <v>249.6743096898122</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="H17" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="I17" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="J17" t="n">
-        <v>88.05730075690235</v>
+        <v>88.05730075690212</v>
       </c>
       <c r="K17" t="n">
-        <v>286.3350680031408</v>
+        <v>286.3350680031405</v>
       </c>
       <c r="L17" t="n">
-        <v>584.5927987338378</v>
+        <v>584.5927987338375</v>
       </c>
       <c r="M17" t="n">
-        <v>933.0685377569678</v>
+        <v>933.0685377569673</v>
       </c>
       <c r="N17" t="n">
         <v>1272.550981011847</v>
@@ -5531,7 +5531,7 @@
         <v>1547.92698775806</v>
       </c>
       <c r="P17" t="n">
-        <v>1745.279655559335</v>
+        <v>1745.279655559334</v>
       </c>
       <c r="Q17" t="n">
         <v>1816.261530362468</v>
@@ -5540,25 +5540,25 @@
         <v>1816.261530362468</v>
       </c>
       <c r="S17" t="n">
-        <v>1816.261530362468</v>
+        <v>1766.23283876938</v>
       </c>
       <c r="T17" t="n">
-        <v>1715.986429963005</v>
+        <v>1766.23283876938</v>
       </c>
       <c r="U17" t="n">
-        <v>1715.986429963005</v>
+        <v>1634.138843595597</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.986429963005</v>
+        <v>1634.138843595597</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.986429963005</v>
+        <v>1403.099562663643</v>
       </c>
       <c r="X17" t="n">
-        <v>1633.274377404039</v>
+        <v>1403.099562663643</v>
       </c>
       <c r="Y17" t="n">
-        <v>1364.864419766387</v>
+        <v>1134.689605025992</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>437.8880679144159</v>
+        <v>437.8880679144157</v>
       </c>
       <c r="C18" t="n">
-        <v>385.1644129714489</v>
+        <v>385.1644129714487</v>
       </c>
       <c r="D18" t="n">
-        <v>357.9593776483576</v>
+        <v>357.9593776483574</v>
       </c>
       <c r="E18" t="n">
-        <v>199.4524076107014</v>
+        <v>320.4512969810619</v>
       </c>
       <c r="F18" t="n">
-        <v>52.91784963758637</v>
+        <v>295.6461133461069</v>
       </c>
       <c r="G18" t="n">
-        <v>36.32523060724936</v>
+        <v>157.3241199776099</v>
       </c>
       <c r="H18" t="n">
-        <v>36.32523060724936</v>
+        <v>112.5488440318175</v>
       </c>
       <c r="I18" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="J18" t="n">
         <v>73.44311750521973</v>
       </c>
       <c r="K18" t="n">
-        <v>263.5043413787027</v>
+        <v>221.872588371602</v>
       </c>
       <c r="L18" t="n">
-        <v>580.4695081752518</v>
+        <v>221.872588371602</v>
       </c>
       <c r="M18" t="n">
-        <v>902.8941041999203</v>
+        <v>643.7352093824088</v>
       </c>
       <c r="N18" t="n">
-        <v>1351.629186884934</v>
+        <v>1092.470292067423</v>
       </c>
       <c r="O18" t="n">
-        <v>1695.718441776331</v>
+        <v>1436.55954695882</v>
       </c>
       <c r="P18" t="n">
         <v>1695.718441776331</v>
@@ -5616,13 +5616,13 @@
         <v>1816.261530362468</v>
       </c>
       <c r="R18" t="n">
-        <v>1740.475450406807</v>
+        <v>1740.475450406806</v>
       </c>
       <c r="S18" t="n">
         <v>1574.651981853258</v>
       </c>
       <c r="T18" t="n">
-        <v>1374.113267268724</v>
+        <v>1495.842641606884</v>
       </c>
       <c r="U18" t="n">
         <v>1267.645920188595</v>
@@ -5631,13 +5631,13 @@
         <v>1032.493811956852</v>
       </c>
       <c r="W18" t="n">
-        <v>899.9858295668107</v>
+        <v>778.2564552286506</v>
       </c>
       <c r="X18" t="n">
-        <v>692.1343293612779</v>
+        <v>570.4049550231177</v>
       </c>
       <c r="Y18" t="n">
-        <v>484.374030596324</v>
+        <v>484.3740305963238</v>
       </c>
     </row>
     <row r="19">
@@ -5668,7 +5668,7 @@
         <v>61.30907897739122</v>
       </c>
       <c r="I19" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="J19" t="n">
         <v>86.95687501239988</v>
@@ -5683,10 +5683,10 @@
         <v>630.9643933675244</v>
       </c>
       <c r="N19" t="n">
-        <v>845.3687030096085</v>
+        <v>845.3687030096088</v>
       </c>
       <c r="O19" t="n">
-        <v>1036.497161825524</v>
+        <v>1036.497161825525</v>
       </c>
       <c r="P19" t="n">
         <v>1193.739139350507</v>
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1161.408342509609</v>
+        <v>1381.118931120367</v>
       </c>
       <c r="C20" t="n">
-        <v>1161.408342509609</v>
+        <v>1133.885788518115</v>
       </c>
       <c r="D20" t="n">
-        <v>1161.408342509609</v>
+        <v>897.3494642495243</v>
       </c>
       <c r="E20" t="n">
         <v>897.3494642495243</v>
@@ -5744,22 +5744,22 @@
         <v>311.0886981589956</v>
       </c>
       <c r="H20" t="n">
-        <v>97.73961907643276</v>
+        <v>97.73961907643275</v>
       </c>
       <c r="I20" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="J20" t="n">
-        <v>88.05730075690222</v>
+        <v>88.05730075690221</v>
       </c>
       <c r="K20" t="n">
         <v>286.3350680031406</v>
       </c>
       <c r="L20" t="n">
-        <v>584.5927987338376</v>
+        <v>584.5927987338375</v>
       </c>
       <c r="M20" t="n">
-        <v>933.0685377569675</v>
+        <v>933.0685377569673</v>
       </c>
       <c r="N20" t="n">
         <v>1272.550981011847</v>
@@ -5768,7 +5768,7 @@
         <v>1547.92698775806</v>
       </c>
       <c r="P20" t="n">
-        <v>1745.279655559335</v>
+        <v>1745.279655559334</v>
       </c>
       <c r="Q20" t="n">
         <v>1816.261530362468</v>
@@ -5783,19 +5783,19 @@
         <v>1816.261530362468</v>
       </c>
       <c r="U20" t="n">
-        <v>1694.688765873222</v>
+        <v>1816.261530362468</v>
       </c>
       <c r="V20" t="n">
-        <v>1694.688765873222</v>
+        <v>1645.989396846328</v>
       </c>
       <c r="W20" t="n">
-        <v>1694.688765873222</v>
+        <v>1645.989396846328</v>
       </c>
       <c r="X20" t="n">
-        <v>1694.688765873222</v>
+        <v>1645.989396846328</v>
       </c>
       <c r="Y20" t="n">
-        <v>1426.278808235571</v>
+        <v>1645.989396846328</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>757.1328965463972</v>
+        <v>502.5334706678412</v>
       </c>
       <c r="C21" t="n">
-        <v>582.6798672652702</v>
+        <v>328.0804413867143</v>
       </c>
       <c r="D21" t="n">
-        <v>433.745457604019</v>
+        <v>300.875406063623</v>
       </c>
       <c r="E21" t="n">
-        <v>274.5080025985635</v>
+        <v>263.3673253963274</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7028189636084</v>
+        <v>238.5621417613724</v>
       </c>
       <c r="G21" t="n">
         <v>221.9695227310354</v>
@@ -5826,25 +5826,25 @@
         <v>112.5488440318175</v>
       </c>
       <c r="I21" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="J21" t="n">
-        <v>73.44311750521973</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="K21" t="n">
-        <v>73.44311750521973</v>
+        <v>226.3864544807324</v>
       </c>
       <c r="L21" t="n">
-        <v>221.8725883716022</v>
+        <v>543.3516212772814</v>
       </c>
       <c r="M21" t="n">
-        <v>643.735209382409</v>
+        <v>965.2142422880883</v>
       </c>
       <c r="N21" t="n">
-        <v>1092.470292067423</v>
+        <v>1413.949324973102</v>
       </c>
       <c r="O21" t="n">
-        <v>1436.55954695882</v>
+        <v>1695.718441776331</v>
       </c>
       <c r="P21" t="n">
         <v>1695.718441776331</v>
@@ -5853,28 +5853,28 @@
         <v>1816.261530362468</v>
       </c>
       <c r="R21" t="n">
-        <v>1816.261530362468</v>
+        <v>1805.120853160232</v>
       </c>
       <c r="S21" t="n">
-        <v>1772.16743614708</v>
+        <v>1761.026758944844</v>
       </c>
       <c r="T21" t="n">
-        <v>1693.358095900706</v>
+        <v>1560.48804436031</v>
       </c>
       <c r="U21" t="n">
-        <v>1586.890748820576</v>
+        <v>1332.29132294202</v>
       </c>
       <c r="V21" t="n">
-        <v>1473.468014926994</v>
+        <v>1097.139214710278</v>
       </c>
       <c r="W21" t="n">
-        <v>1219.230658198792</v>
+        <v>842.901857982076</v>
       </c>
       <c r="X21" t="n">
-        <v>1133.108532331419</v>
+        <v>756.7797321147032</v>
       </c>
       <c r="Y21" t="n">
-        <v>925.3482335664653</v>
+        <v>549.0194333497493</v>
       </c>
     </row>
     <row r="22">
@@ -5905,7 +5905,7 @@
         <v>61.30907897739122</v>
       </c>
       <c r="I22" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="J22" t="n">
         <v>86.95687501239988</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1080.728410675412</v>
+        <v>913.3541800636385</v>
       </c>
       <c r="C23" t="n">
-        <v>833.4952680731606</v>
+        <v>666.1210374613869</v>
       </c>
       <c r="D23" t="n">
-        <v>596.95894380457</v>
+        <v>666.1210374613869</v>
       </c>
       <c r="E23" t="n">
-        <v>332.9000655444858</v>
+        <v>402.0621592013026</v>
       </c>
       <c r="F23" t="n">
-        <v>43.64353509303814</v>
+        <v>402.0621592013026</v>
       </c>
       <c r="G23" t="n">
-        <v>43.64353509303814</v>
+        <v>105.0579235622215</v>
       </c>
       <c r="H23" t="n">
-        <v>43.64353509303814</v>
+        <v>105.0579235622215</v>
       </c>
       <c r="I23" t="n">
         <v>43.64353509303814</v>
       </c>
       <c r="J23" t="n">
-        <v>214.6825650315216</v>
+        <v>95.37560524269099</v>
       </c>
       <c r="K23" t="n">
-        <v>532.2672920665906</v>
+        <v>293.6533724889294</v>
       </c>
       <c r="L23" t="n">
-        <v>830.5250227972876</v>
+        <v>591.9111032196264</v>
       </c>
       <c r="M23" t="n">
-        <v>1179.000761820417</v>
+        <v>940.3868422427563</v>
       </c>
       <c r="N23" t="n">
-        <v>1518.483205075297</v>
+        <v>1399.176245286466</v>
       </c>
       <c r="O23" t="n">
         <v>1793.85921182151</v>
       </c>
       <c r="P23" t="n">
-        <v>2093.215319931911</v>
+        <v>2110.518839411615</v>
       </c>
       <c r="Q23" t="n">
-        <v>2164.197194735045</v>
+        <v>2181.500714214748</v>
       </c>
       <c r="R23" t="n">
         <v>2182.176754651907</v>
       </c>
       <c r="S23" t="n">
-        <v>2182.176754651907</v>
+        <v>2110.186781067924</v>
       </c>
       <c r="T23" t="n">
-        <v>2182.176754651907</v>
+        <v>2110.186781067924</v>
       </c>
       <c r="U23" t="n">
-        <v>2182.176754651907</v>
+        <v>2110.186781067924</v>
       </c>
       <c r="V23" t="n">
-        <v>2096.7844988939</v>
+        <v>1929.410268282126</v>
       </c>
       <c r="W23" t="n">
-        <v>1865.745217961946</v>
+        <v>1698.370987350172</v>
       </c>
       <c r="X23" t="n">
-        <v>1614.008834039026</v>
+        <v>1446.634603427252</v>
       </c>
       <c r="Y23" t="n">
-        <v>1345.598876401374</v>
+        <v>1178.2246457896</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>753.3105238299499</v>
+        <v>567.666231706164</v>
       </c>
       <c r="C24" t="n">
-        <v>578.857494548823</v>
+        <v>393.213202425037</v>
       </c>
       <c r="D24" t="n">
-        <v>551.6524592257317</v>
+        <v>244.2787927637857</v>
       </c>
       <c r="E24" t="n">
-        <v>514.1443785584362</v>
+        <v>206.7707120964902</v>
       </c>
       <c r="F24" t="n">
-        <v>367.6098205853211</v>
+        <v>181.9655284615351</v>
       </c>
       <c r="G24" t="n">
-        <v>229.2878272168242</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="H24" t="n">
-        <v>119.8671485176063</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="I24" t="n">
         <v>43.64353509303814</v>
       </c>
       <c r="J24" t="n">
-        <v>80.76142199100877</v>
+        <v>80.76142199100855</v>
       </c>
       <c r="K24" t="n">
-        <v>270.8226458644917</v>
+        <v>270.8226458644916</v>
       </c>
       <c r="L24" t="n">
-        <v>587.7878126610408</v>
+        <v>587.7878126610407</v>
       </c>
       <c r="M24" t="n">
         <v>1009.650433671848</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.385516356861</v>
+        <v>1458.385516356862</v>
       </c>
       <c r="O24" t="n">
         <v>1802.474771248259</v>
@@ -6093,25 +6093,25 @@
         <v>2106.390674696245</v>
       </c>
       <c r="S24" t="n">
-        <v>1940.567206142697</v>
+        <v>1947.888894321326</v>
       </c>
       <c r="T24" t="n">
-        <v>1740.028491558163</v>
+        <v>1869.079554074952</v>
       </c>
       <c r="U24" t="n">
-        <v>1583.068376104129</v>
+        <v>1640.882832656663</v>
       </c>
       <c r="V24" t="n">
-        <v>1347.916267872386</v>
+        <v>1405.73072442492</v>
       </c>
       <c r="W24" t="n">
-        <v>1093.678911144185</v>
+        <v>1151.493367696719</v>
       </c>
       <c r="X24" t="n">
-        <v>885.827410938652</v>
+        <v>943.6418674911858</v>
       </c>
       <c r="Y24" t="n">
-        <v>799.796486511858</v>
+        <v>735.881568726232</v>
       </c>
     </row>
     <row r="25">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1439.147034783677</v>
+        <v>1168.726646995397</v>
       </c>
       <c r="C26" t="n">
-        <v>1191.913892181425</v>
+        <v>1168.726646995397</v>
       </c>
       <c r="D26" t="n">
-        <v>955.3775679128345</v>
+        <v>1168.726646995397</v>
       </c>
       <c r="E26" t="n">
-        <v>691.3186896527502</v>
+        <v>904.6677687353128</v>
       </c>
       <c r="F26" t="n">
-        <v>402.0621592013026</v>
+        <v>615.4112382838653</v>
       </c>
       <c r="G26" t="n">
-        <v>105.0579235622216</v>
+        <v>318.4070026447843</v>
       </c>
       <c r="H26" t="n">
-        <v>105.0579235622216</v>
+        <v>105.0579235622215</v>
       </c>
       <c r="I26" t="n">
-        <v>43.64353509303814</v>
+        <v>43.64353509303812</v>
       </c>
       <c r="J26" t="n">
-        <v>214.6825650315216</v>
+        <v>95.37560524269099</v>
       </c>
       <c r="K26" t="n">
-        <v>532.2672920665906</v>
+        <v>412.96033227776</v>
       </c>
       <c r="L26" t="n">
-        <v>830.5250227972876</v>
+        <v>711.218063008457</v>
       </c>
       <c r="M26" t="n">
-        <v>1179.000761820417</v>
+        <v>1161.697242340714</v>
       </c>
       <c r="N26" t="n">
-        <v>1518.483205075297</v>
+        <v>1501.179685595593</v>
       </c>
       <c r="O26" t="n">
-        <v>1793.85921182151</v>
+        <v>1776.555692341806</v>
       </c>
       <c r="P26" t="n">
-        <v>1991.211879622784</v>
+        <v>1973.90836014308</v>
       </c>
       <c r="Q26" t="n">
-        <v>2181.500714214748</v>
+        <v>2164.197194735044</v>
       </c>
       <c r="R26" t="n">
-        <v>2182.176754651907</v>
+        <v>2182.176754651906</v>
       </c>
       <c r="S26" t="n">
         <v>2110.186781067924</v>
       </c>
       <c r="T26" t="n">
-        <v>2110.186781067924</v>
+        <v>2009.911680668461</v>
       </c>
       <c r="U26" t="n">
-        <v>2110.186781067924</v>
+        <v>1877.817685494678</v>
       </c>
       <c r="V26" t="n">
-        <v>2110.186781067924</v>
+        <v>1668.484172489268</v>
       </c>
       <c r="W26" t="n">
-        <v>1879.14750013597</v>
+        <v>1668.484172489268</v>
       </c>
       <c r="X26" t="n">
-        <v>1627.41111621305</v>
+        <v>1668.484172489268</v>
       </c>
       <c r="Y26" t="n">
-        <v>1439.147034783677</v>
+        <v>1400.074214851616</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>689.3956060443239</v>
+        <v>996.7692725062699</v>
       </c>
       <c r="C27" t="n">
-        <v>514.9425767631969</v>
+        <v>822.3162432251429</v>
       </c>
       <c r="D27" t="n">
-        <v>366.0081671019457</v>
+        <v>673.3818335638916</v>
       </c>
       <c r="E27" t="n">
-        <v>206.7707120964902</v>
+        <v>514.1443785584362</v>
       </c>
       <c r="F27" t="n">
-        <v>60.23615412337517</v>
+        <v>367.6098205853211</v>
       </c>
       <c r="G27" t="n">
-        <v>43.64353509303814</v>
+        <v>229.2878272168242</v>
       </c>
       <c r="H27" t="n">
-        <v>43.64353509303814</v>
+        <v>119.8671485176063</v>
       </c>
       <c r="I27" t="n">
-        <v>43.64353509303814</v>
+        <v>43.64353509303812</v>
       </c>
       <c r="J27" t="n">
-        <v>80.76142199100855</v>
+        <v>80.76142199100849</v>
       </c>
       <c r="K27" t="n">
         <v>270.8226458644915</v>
       </c>
       <c r="L27" t="n">
-        <v>587.7878126610406</v>
+        <v>587.7878126610408</v>
       </c>
       <c r="M27" t="n">
-        <v>1009.650433671848</v>
+        <v>1009.650433671847</v>
       </c>
       <c r="N27" t="n">
         <v>1458.385516356861</v>
@@ -6324,31 +6324,31 @@
         <v>2061.63366606577</v>
       </c>
       <c r="Q27" t="n">
-        <v>2182.176754651907</v>
+        <v>2182.176754651906</v>
       </c>
       <c r="R27" t="n">
-        <v>2182.176754651907</v>
+        <v>2182.176754651906</v>
       </c>
       <c r="S27" t="n">
-        <v>2069.618268659486</v>
+        <v>2138.082660436518</v>
       </c>
       <c r="T27" t="n">
-        <v>1869.079554074952</v>
+        <v>1937.543945851984</v>
       </c>
       <c r="U27" t="n">
-        <v>1640.882832656663</v>
+        <v>1709.347224433695</v>
       </c>
       <c r="V27" t="n">
-        <v>1405.73072442492</v>
+        <v>1474.195116201952</v>
       </c>
       <c r="W27" t="n">
-        <v>1151.493367696719</v>
+        <v>1341.68713381191</v>
       </c>
       <c r="X27" t="n">
-        <v>943.6418674911858</v>
+        <v>1255.565007944537</v>
       </c>
       <c r="Y27" t="n">
-        <v>857.6109430643919</v>
+        <v>1047.804709179584</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>282.2705700702285</v>
+        <v>282.2705700702283</v>
       </c>
       <c r="C28" t="n">
-        <v>235.0637614804816</v>
+        <v>235.0637614804814</v>
       </c>
       <c r="D28" t="n">
-        <v>206.6764964063058</v>
+        <v>206.6764964063057</v>
       </c>
       <c r="E28" t="n">
-        <v>180.4927771620727</v>
+        <v>180.4927771620726</v>
       </c>
       <c r="F28" t="n">
-        <v>155.3322040023223</v>
+        <v>155.3322040023222</v>
       </c>
       <c r="G28" t="n">
-        <v>107.7164714588738</v>
+        <v>107.7164714588735</v>
       </c>
       <c r="H28" t="n">
-        <v>68.62738346318022</v>
+        <v>68.62738346317998</v>
       </c>
       <c r="I28" t="n">
-        <v>43.64353509303814</v>
+        <v>43.64353509303812</v>
       </c>
       <c r="J28" t="n">
-        <v>94.27517949818863</v>
+        <v>94.27517949818866</v>
       </c>
       <c r="K28" t="n">
-        <v>230.5643366019406</v>
+        <v>230.5643366019407</v>
       </c>
       <c r="L28" t="n">
-        <v>427.129096790934</v>
+        <v>427.1290967909341</v>
       </c>
       <c r="M28" t="n">
         <v>638.282697853313</v>
       </c>
       <c r="N28" t="n">
-        <v>852.6870074953974</v>
+        <v>852.6870074953976</v>
       </c>
       <c r="O28" t="n">
         <v>1043.815466311313</v>
       </c>
       <c r="P28" t="n">
-        <v>1201.057443836296</v>
+        <v>1201.057443836297</v>
       </c>
       <c r="Q28" t="n">
         <v>1263.193563418146</v>
@@ -6415,19 +6415,19 @@
         <v>1015.619022407878</v>
       </c>
       <c r="U28" t="n">
-        <v>848.1559514940632</v>
+        <v>848.1559514940629</v>
       </c>
       <c r="V28" t="n">
-        <v>715.2008376263362</v>
+        <v>715.2008376263361</v>
       </c>
       <c r="W28" t="n">
-        <v>547.5130419275356</v>
+        <v>547.5130419275355</v>
       </c>
       <c r="X28" t="n">
         <v>441.2528653676782</v>
       </c>
       <c r="Y28" t="n">
-        <v>342.1896605623083</v>
+        <v>342.189660562308</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>883.1916564952826</v>
+        <v>1426.409196485901</v>
       </c>
       <c r="C29" t="n">
-        <v>645.7082635998737</v>
+        <v>1188.925803590492</v>
       </c>
       <c r="D29" t="n">
-        <v>586.161989163337</v>
+        <v>962.1392290287447</v>
       </c>
       <c r="E29" t="n">
-        <v>586.161989163337</v>
+        <v>707.8301004755032</v>
       </c>
       <c r="F29" t="n">
-        <v>586.161989163337</v>
+        <v>428.3233197308984</v>
       </c>
       <c r="G29" t="n">
-        <v>298.9075032310988</v>
+        <v>141.0688337986601</v>
       </c>
       <c r="H29" t="n">
-        <v>95.30817385537875</v>
+        <v>95.30817385537878</v>
       </c>
       <c r="I29" t="n">
         <v>43.64353509303814</v>
       </c>
       <c r="J29" t="n">
-        <v>95.37560524269099</v>
+        <v>196.247146093327</v>
       </c>
       <c r="K29" t="n">
-        <v>293.6533724889294</v>
+        <v>523.3876028160726</v>
       </c>
       <c r="L29" t="n">
-        <v>665.2473544657234</v>
+        <v>821.6453335467695</v>
       </c>
       <c r="M29" t="n">
-        <v>1013.723093488853</v>
+        <v>1170.121072569899</v>
       </c>
       <c r="N29" t="n">
-        <v>1482.06822622024</v>
+        <v>1509.603515824779</v>
       </c>
       <c r="O29" t="n">
-        <v>1757.444232966453</v>
+        <v>1784.979522570992</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.796900767727</v>
+        <v>1982.332190372266</v>
       </c>
       <c r="Q29" t="n">
-        <v>2154.641465047368</v>
+        <v>2182.176754651907</v>
       </c>
       <c r="R29" t="n">
         <v>2182.176754651907</v>
@@ -6494,19 +6494,19 @@
         <v>2182.176754651907</v>
       </c>
       <c r="U29" t="n">
-        <v>2059.832509184967</v>
+        <v>2182.176754651907</v>
       </c>
       <c r="V29" t="n">
-        <v>1860.248745886399</v>
+        <v>2182.176754651907</v>
       </c>
       <c r="W29" t="n">
-        <v>1638.959214661288</v>
+        <v>2182.176754651907</v>
       </c>
       <c r="X29" t="n">
-        <v>1396.97258044521</v>
+        <v>1940.19012043583</v>
       </c>
       <c r="Y29" t="n">
-        <v>1138.312372514402</v>
+        <v>1681.529912505021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>777.3594972350413</v>
+        <v>679.6458563374812</v>
       </c>
       <c r="C30" t="n">
-        <v>712.8955645259252</v>
+        <v>505.1928270563542</v>
       </c>
       <c r="D30" t="n">
-        <v>563.961154864674</v>
+        <v>356.2584173951029</v>
       </c>
       <c r="E30" t="n">
-        <v>404.7236998592184</v>
+        <v>197.0209623896474</v>
       </c>
       <c r="F30" t="n">
-        <v>258.1891418861034</v>
+        <v>181.9655284615351</v>
       </c>
       <c r="G30" t="n">
-        <v>119.8671485176063</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="H30" t="n">
-        <v>119.8671485176063</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="I30" t="n">
         <v>43.64353509303814</v>
       </c>
       <c r="J30" t="n">
-        <v>80.76142199100852</v>
+        <v>80.76142199100855</v>
       </c>
       <c r="K30" t="n">
         <v>270.8226458644915</v>
@@ -6549,7 +6549,7 @@
         <v>587.7878126610406</v>
       </c>
       <c r="M30" t="n">
-        <v>1009.650433671847</v>
+        <v>1009.650433671848</v>
       </c>
       <c r="N30" t="n">
         <v>1458.385516356861</v>
@@ -6561,31 +6561,31 @@
         <v>2061.63366606577</v>
       </c>
       <c r="Q30" t="n">
-        <v>2182.176754651906</v>
+        <v>2182.176754651907</v>
       </c>
       <c r="R30" t="n">
-        <v>2182.176754651906</v>
+        <v>2106.390674696245</v>
       </c>
       <c r="S30" t="n">
-        <v>2147.832410143361</v>
+        <v>1940.567206142697</v>
       </c>
       <c r="T30" t="n">
-        <v>1947.293695558827</v>
+        <v>1740.028491558163</v>
       </c>
       <c r="U30" t="n">
-        <v>1850.57609818554</v>
+        <v>1621.383333242977</v>
       </c>
       <c r="V30" t="n">
-        <v>1615.423989953798</v>
+        <v>1386.231225011235</v>
       </c>
       <c r="W30" t="n">
-        <v>1361.186633225596</v>
+        <v>1131.993868283033</v>
       </c>
       <c r="X30" t="n">
-        <v>1153.335133020063</v>
+        <v>924.1423680775004</v>
       </c>
       <c r="Y30" t="n">
-        <v>945.5748342551094</v>
+        <v>847.8611933575492</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1289.001508665574</v>
+        <v>214.0223221223289</v>
       </c>
       <c r="C31" t="n">
-        <v>1251.54444978267</v>
+        <v>176.5652632394247</v>
       </c>
       <c r="D31" t="n">
-        <v>1232.906934415337</v>
+        <v>157.9277478720917</v>
       </c>
       <c r="E31" t="n">
-        <v>1216.472964877947</v>
+        <v>141.4937783347014</v>
       </c>
       <c r="F31" t="n">
-        <v>1201.062141425039</v>
+        <v>126.0829548817938</v>
       </c>
       <c r="G31" t="n">
-        <v>1163.196158588433</v>
+        <v>88.21697204518802</v>
       </c>
       <c r="H31" t="n">
-        <v>1133.856820299583</v>
+        <v>58.87763375633725</v>
       </c>
       <c r="I31" t="n">
-        <v>1118.622721636283</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="J31" t="n">
-        <v>1178.810095729111</v>
+        <v>103.8309091858653</v>
       </c>
       <c r="K31" t="n">
-        <v>1324.654982520539</v>
+        <v>249.6757959772938</v>
       </c>
       <c r="L31" t="n">
-        <v>1530.775472397209</v>
+        <v>455.7962858539638</v>
       </c>
       <c r="M31" t="n">
-        <v>1647.905659812875</v>
+        <v>572.9264732696297</v>
       </c>
       <c r="N31" t="n">
-        <v>1743.003009666129</v>
+        <v>668.0238231228835</v>
       </c>
       <c r="O31" t="n">
-        <v>1943.687198169721</v>
+        <v>868.7080116264759</v>
       </c>
       <c r="P31" t="n">
-        <v>2110.484905382381</v>
+        <v>1035.505718839136</v>
       </c>
       <c r="Q31" t="n">
-        <v>2182.176754651907</v>
+        <v>1107.197568108661</v>
       </c>
       <c r="R31" t="n">
-        <v>2149.982978838114</v>
+        <v>1075.003792294869</v>
       </c>
       <c r="S31" t="n">
-        <v>2061.155927061037</v>
+        <v>986.1767405177916</v>
       </c>
       <c r="T31" t="n">
-        <v>1963.851462762167</v>
+        <v>888.8722762189213</v>
       </c>
       <c r="U31" t="n">
-        <v>1806.138141555195</v>
+        <v>731.1589550119497</v>
       </c>
       <c r="V31" t="n">
-        <v>1682.932777394311</v>
+        <v>607.9535908510657</v>
       </c>
       <c r="W31" t="n">
-        <v>1524.994731402353</v>
+        <v>450.0155448591078</v>
       </c>
       <c r="X31" t="n">
-        <v>1428.484304549339</v>
+        <v>353.5051180060932</v>
       </c>
       <c r="Y31" t="n">
-        <v>1339.170849450811</v>
+        <v>264.1916629075658</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>642.1133143104995</v>
       </c>
       <c r="F32" t="n">
-        <v>419.9034725109287</v>
+        <v>419.9034725109288</v>
       </c>
       <c r="G32" t="n">
         <v>189.9459255237242</v>
@@ -6704,22 +6704,22 @@
         <v>299.1735898979872</v>
       </c>
       <c r="L32" t="n">
-        <v>597.4313206286843</v>
+        <v>782.4507399652193</v>
       </c>
       <c r="M32" t="n">
-        <v>945.9070596518141</v>
+        <v>1298.983762046406</v>
       </c>
       <c r="N32" t="n">
-        <v>1285.389502906694</v>
+        <v>1638.466205301286</v>
       </c>
       <c r="O32" t="n">
-        <v>1560.765509652907</v>
+        <v>1913.842212047499</v>
       </c>
       <c r="P32" t="n">
-        <v>1943.137596790716</v>
+        <v>2111.194879848773</v>
       </c>
       <c r="Q32" t="n">
-        <v>2098.48473518734</v>
+        <v>2182.176754651907</v>
       </c>
       <c r="R32" t="n">
         <v>2182.176754651907</v>
@@ -6728,7 +6728,7 @@
         <v>2177.233469719801</v>
       </c>
       <c r="T32" t="n">
-        <v>2144.005057972215</v>
+        <v>2144.005057972216</v>
       </c>
       <c r="U32" t="n">
         <v>2078.95775145031</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>516.5442302465724</v>
+        <v>738.414184145801</v>
       </c>
       <c r="C33" t="n">
-        <v>516.5442302465724</v>
+        <v>563.961154864674</v>
       </c>
       <c r="D33" t="n">
-        <v>367.6098205853211</v>
+        <v>563.961154864674</v>
       </c>
       <c r="E33" t="n">
-        <v>367.6098205853211</v>
+        <v>404.7236998592184</v>
       </c>
       <c r="F33" t="n">
-        <v>367.6098205853211</v>
+        <v>258.1891418861034</v>
       </c>
       <c r="G33" t="n">
-        <v>229.2878272168242</v>
+        <v>119.8671485176063</v>
       </c>
       <c r="H33" t="n">
         <v>119.8671485176063</v>
@@ -6777,19 +6777,19 @@
         <v>43.64353509303814</v>
       </c>
       <c r="J33" t="n">
-        <v>80.76142199100866</v>
+        <v>80.76142199100849</v>
       </c>
       <c r="K33" t="n">
-        <v>270.8226458644917</v>
+        <v>270.8226458644915</v>
       </c>
       <c r="L33" t="n">
-        <v>587.7878126610408</v>
+        <v>587.787812661041</v>
       </c>
       <c r="M33" t="n">
         <v>1009.650433671848</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.385516356861</v>
+        <v>1458.385516356862</v>
       </c>
       <c r="O33" t="n">
         <v>1802.474771248259</v>
@@ -6804,25 +6804,25 @@
         <v>2106.390674696245</v>
       </c>
       <c r="S33" t="n">
-        <v>1940.567206142697</v>
+        <v>2051.590158109087</v>
       </c>
       <c r="T33" t="n">
-        <v>1740.028491558163</v>
+        <v>1851.051443524552</v>
       </c>
       <c r="U33" t="n">
-        <v>1511.831770139874</v>
+        <v>1622.854722106263</v>
       </c>
       <c r="V33" t="n">
-        <v>1276.679661908131</v>
+        <v>1387.70261387452</v>
       </c>
       <c r="W33" t="n">
-        <v>1022.442305179929</v>
+        <v>1322.241320136356</v>
       </c>
       <c r="X33" t="n">
-        <v>814.5908049743966</v>
+        <v>1114.389819930823</v>
       </c>
       <c r="Y33" t="n">
-        <v>606.8305062094428</v>
+        <v>906.6295211658689</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1779.428956836259</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="C34" t="n">
-        <v>1779.428956836259</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="D34" t="n">
-        <v>1779.428956836259</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="E34" t="n">
-        <v>1779.428956836259</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="F34" t="n">
-        <v>1779.428956836259</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="G34" t="n">
-        <v>1779.428956836259</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="H34" t="n">
-        <v>1779.428956836259</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="I34" t="n">
-        <v>1779.428956836259</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="J34" t="n">
-        <v>1779.428956836259</v>
+        <v>43.64353509303814</v>
       </c>
       <c r="K34" t="n">
-        <v>1796.411154151181</v>
+        <v>60.62573240795955</v>
       </c>
       <c r="L34" t="n">
-        <v>1873.668954551343</v>
+        <v>137.8835328081223</v>
       </c>
       <c r="M34" t="n">
-        <v>1965.515595824892</v>
+        <v>229.7301740816708</v>
       </c>
       <c r="N34" t="n">
-        <v>2060.612945678146</v>
+        <v>324.8275239349247</v>
       </c>
       <c r="O34" t="n">
-        <v>2132.434444705231</v>
+        <v>396.6490229620099</v>
       </c>
       <c r="P34" t="n">
-        <v>2170.369462441384</v>
+        <v>453.3770918651028</v>
       </c>
       <c r="Q34" t="n">
-        <v>2170.369462441384</v>
+        <v>453.3770918651028</v>
       </c>
       <c r="R34" t="n">
-        <v>2182.176754651907</v>
+        <v>453.3770918651028</v>
       </c>
       <c r="S34" t="n">
-        <v>2150.646641819863</v>
+        <v>421.8469790330595</v>
       </c>
       <c r="T34" t="n">
-        <v>2110.639116466027</v>
+        <v>381.8394536792233</v>
       </c>
       <c r="U34" t="n">
-        <v>2010.22273420409</v>
+        <v>281.4230714172858</v>
       </c>
       <c r="V34" t="n">
-        <v>1944.31430898824</v>
+        <v>215.5146462014358</v>
       </c>
       <c r="W34" t="n">
-        <v>1843.673201941316</v>
+        <v>114.8735391545119</v>
       </c>
       <c r="X34" t="n">
-        <v>1804.459714033335</v>
+        <v>75.66005124653142</v>
       </c>
       <c r="Y34" t="n">
-        <v>1772.443197879842</v>
+        <v>43.64353509303814</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>822.8863691963567</v>
+        <v>822.8863691963564</v>
       </c>
       <c r="C35" t="n">
-        <v>642.6999152459819</v>
+        <v>642.6999152459816</v>
       </c>
       <c r="D35" t="n">
-        <v>634.7950098247103</v>
+        <v>473.210279629268</v>
       </c>
       <c r="E35" t="n">
-        <v>634.7950098247103</v>
+        <v>276.1980900210606</v>
       </c>
       <c r="F35" t="n">
-        <v>412.5851680251396</v>
+        <v>53.98824822148987</v>
       </c>
       <c r="G35" t="n">
-        <v>182.6276210379354</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="H35" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="I35" t="n">
-        <v>36.32523060724949</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="J35" t="n">
-        <v>88.05730075690235</v>
+        <v>88.05730075690218</v>
       </c>
       <c r="K35" t="n">
-        <v>286.3350680031407</v>
+        <v>286.3350680031406</v>
       </c>
       <c r="L35" t="n">
-        <v>584.5927987338378</v>
+        <v>584.5927987338375</v>
       </c>
       <c r="M35" t="n">
-        <v>933.0685377569675</v>
+        <v>933.0685377569674</v>
       </c>
       <c r="N35" t="n">
         <v>1272.550981011847</v>
@@ -6953,7 +6953,7 @@
         <v>1547.92698775806</v>
       </c>
       <c r="P35" t="n">
-        <v>1745.279655559335</v>
+        <v>1745.279655559334</v>
       </c>
       <c r="Q35" t="n">
         <v>1816.261530362468</v>
@@ -6965,7 +6965,7 @@
         <v>1811.318245430362</v>
       </c>
       <c r="T35" t="n">
-        <v>1778.089833682777</v>
+        <v>1778.089833682776</v>
       </c>
       <c r="U35" t="n">
         <v>1713.042527160871</v>
@@ -6974,13 +6974,13 @@
         <v>1570.755702807337</v>
       </c>
       <c r="W35" t="n">
-        <v>1406.76311052726</v>
+        <v>1406.763110527259</v>
       </c>
       <c r="X35" t="n">
-        <v>1222.073415256217</v>
+        <v>1222.073415256216</v>
       </c>
       <c r="Y35" t="n">
-        <v>1020.710146270442</v>
+        <v>1020.710146270441</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>616.0755394335581</v>
+        <v>693.9820003861149</v>
       </c>
       <c r="C36" t="n">
-        <v>441.6225101524311</v>
+        <v>519.5289711049879</v>
       </c>
       <c r="D36" t="n">
-        <v>292.6881004911799</v>
+        <v>519.5289711049879</v>
       </c>
       <c r="E36" t="n">
-        <v>133.4506454857244</v>
+        <v>360.2915160995324</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4506454857244</v>
+        <v>360.2915160995324</v>
       </c>
       <c r="G36" t="n">
-        <v>36.32523060724936</v>
+        <v>221.9695227310354</v>
       </c>
       <c r="H36" t="n">
-        <v>36.32523060724936</v>
+        <v>112.5488440318175</v>
       </c>
       <c r="I36" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="J36" t="n">
         <v>73.44311750521973</v>
       </c>
       <c r="K36" t="n">
-        <v>73.44311750521973</v>
+        <v>263.5043413787027</v>
       </c>
       <c r="L36" t="n">
-        <v>221.8725883716022</v>
+        <v>263.5043413787027</v>
       </c>
       <c r="M36" t="n">
-        <v>643.735209382409</v>
+        <v>643.7352093824088</v>
       </c>
       <c r="N36" t="n">
         <v>1092.470292067423</v>
@@ -7038,28 +7038,28 @@
         <v>1816.261530362468</v>
       </c>
       <c r="R36" t="n">
-        <v>1740.475450406807</v>
+        <v>1816.261530362468</v>
       </c>
       <c r="S36" t="n">
-        <v>1740.475450406807</v>
+        <v>1650.438061808919</v>
       </c>
       <c r="T36" t="n">
-        <v>1539.936735822273</v>
+        <v>1449.899347224386</v>
       </c>
       <c r="U36" t="n">
-        <v>1311.740014403983</v>
+        <v>1221.702625806096</v>
       </c>
       <c r="V36" t="n">
-        <v>1076.587906172241</v>
+        <v>986.5505175743535</v>
       </c>
       <c r="W36" t="n">
-        <v>822.3505494440392</v>
+        <v>732.313160846152</v>
       </c>
       <c r="X36" t="n">
-        <v>803.2751122285432</v>
+        <v>712.966236161032</v>
       </c>
       <c r="Y36" t="n">
-        <v>784.2908764536261</v>
+        <v>693.9820003861149</v>
       </c>
     </row>
     <row r="37">
@@ -7069,64 +7069,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
       <c r="C37" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418968</v>
       </c>
       <c r="D37" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418968</v>
       </c>
       <c r="E37" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418968</v>
       </c>
       <c r="F37" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418968</v>
       </c>
       <c r="G37" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418968</v>
       </c>
       <c r="H37" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418968</v>
       </c>
       <c r="I37" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418968</v>
       </c>
       <c r="J37" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418968</v>
       </c>
       <c r="K37" t="n">
-        <v>53.30742792217077</v>
+        <v>72.10047908911109</v>
       </c>
       <c r="L37" t="n">
-        <v>130.5652283223336</v>
+        <v>149.3582794892739</v>
       </c>
       <c r="M37" t="n">
-        <v>222.4118695958821</v>
+        <v>241.2049207628224</v>
       </c>
       <c r="N37" t="n">
-        <v>317.5092194491359</v>
+        <v>336.3022706160762</v>
       </c>
       <c r="O37" t="n">
-        <v>389.3307184762211</v>
+        <v>408.1237696431614</v>
       </c>
       <c r="P37" t="n">
-        <v>427.2657362123737</v>
+        <v>446.058787379314</v>
       </c>
       <c r="Q37" t="n">
-        <v>427.2657362123737</v>
+        <v>446.058787379314</v>
       </c>
       <c r="R37" t="n">
-        <v>446.0587873793141</v>
+        <v>446.058787379314</v>
       </c>
       <c r="S37" t="n">
-        <v>414.5286745472708</v>
+        <v>414.5286745472707</v>
       </c>
       <c r="T37" t="n">
-        <v>374.5211491934346</v>
+        <v>374.5211491934345</v>
       </c>
       <c r="U37" t="n">
-        <v>274.1047669314971</v>
+        <v>274.104766931497</v>
       </c>
       <c r="V37" t="n">
         <v>208.196341715647</v>
@@ -7135,10 +7135,10 @@
         <v>107.5552346687232</v>
       </c>
       <c r="X37" t="n">
-        <v>68.34174676074265</v>
+        <v>68.34174676074264</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724935</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>959.2734472004356</v>
+        <v>831.8071994329177</v>
       </c>
       <c r="C38" t="n">
-        <v>779.0869932500607</v>
+        <v>831.8071994329177</v>
       </c>
       <c r="D38" t="n">
-        <v>609.597357633347</v>
+        <v>831.8071994329177</v>
       </c>
       <c r="E38" t="n">
-        <v>412.5851680251396</v>
+        <v>634.7950098247103</v>
       </c>
       <c r="F38" t="n">
         <v>412.5851680251396</v>
@@ -7172,10 +7172,10 @@
         <v>36.32523060724936</v>
       </c>
       <c r="J38" t="n">
-        <v>88.05730075690235</v>
+        <v>88.05730075690224</v>
       </c>
       <c r="K38" t="n">
-        <v>286.3350680031408</v>
+        <v>286.3350680031407</v>
       </c>
       <c r="L38" t="n">
         <v>584.592798733838</v>
@@ -7199,25 +7199,25 @@
         <v>1816.261530362468</v>
       </c>
       <c r="S38" t="n">
-        <v>1811.318245430362</v>
+        <v>1816.261530362468</v>
       </c>
       <c r="T38" t="n">
-        <v>1778.089833682777</v>
+        <v>1787.010663919338</v>
       </c>
       <c r="U38" t="n">
-        <v>1778.089833682777</v>
+        <v>1721.963357397432</v>
       </c>
       <c r="V38" t="n">
-        <v>1707.142780811416</v>
+        <v>1579.676533043898</v>
       </c>
       <c r="W38" t="n">
-        <v>1543.150188531339</v>
+        <v>1415.683940763821</v>
       </c>
       <c r="X38" t="n">
-        <v>1358.460493260296</v>
+        <v>1230.994245492778</v>
       </c>
       <c r="Y38" t="n">
-        <v>1157.097224274521</v>
+        <v>1029.630976507003</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>314.3094934091457</v>
+        <v>595.5148134635892</v>
       </c>
       <c r="C39" t="n">
-        <v>139.8564641280187</v>
+        <v>421.0617841824622</v>
       </c>
       <c r="D39" t="n">
-        <v>139.8564641280187</v>
+        <v>421.0617841824622</v>
       </c>
       <c r="E39" t="n">
-        <v>112.5488440318175</v>
+        <v>360.2915160995324</v>
       </c>
       <c r="F39" t="n">
-        <v>112.5488440318175</v>
+        <v>360.2915160995324</v>
       </c>
       <c r="G39" t="n">
-        <v>112.5488440318175</v>
+        <v>221.9695227310354</v>
       </c>
       <c r="H39" t="n">
         <v>112.5488440318175</v>
@@ -7263,10 +7263,10 @@
         <v>1002.332129186059</v>
       </c>
       <c r="N39" t="n">
-        <v>1451.067211871072</v>
+        <v>1351.629186884934</v>
       </c>
       <c r="O39" t="n">
-        <v>1451.067211871072</v>
+        <v>1695.718441776331</v>
       </c>
       <c r="P39" t="n">
         <v>1695.718441776331</v>
@@ -7275,28 +7275,28 @@
         <v>1816.261530362468</v>
       </c>
       <c r="R39" t="n">
-        <v>1816.261530362468</v>
+        <v>1740.475450406807</v>
       </c>
       <c r="S39" t="n">
-        <v>1816.261530362468</v>
+        <v>1740.475450406807</v>
       </c>
       <c r="T39" t="n">
-        <v>1615.722815777934</v>
+        <v>1728.71279881231</v>
       </c>
       <c r="U39" t="n">
-        <v>1387.526094359645</v>
+        <v>1500.51607739402</v>
       </c>
       <c r="V39" t="n">
-        <v>1152.373986127902</v>
+        <v>1265.363969162277</v>
       </c>
       <c r="W39" t="n">
-        <v>898.1366293997005</v>
+        <v>1011.126612434076</v>
       </c>
       <c r="X39" t="n">
-        <v>690.2851291941677</v>
+        <v>803.2751122285431</v>
       </c>
       <c r="Y39" t="n">
-        <v>482.5248304292138</v>
+        <v>595.5148134635892</v>
       </c>
     </row>
     <row r="40">
@@ -7309,22 +7309,22 @@
         <v>36.32523060724936</v>
       </c>
       <c r="C40" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418973</v>
       </c>
       <c r="D40" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418973</v>
       </c>
       <c r="E40" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418973</v>
       </c>
       <c r="F40" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418973</v>
       </c>
       <c r="G40" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418973</v>
       </c>
       <c r="H40" t="n">
-        <v>36.32523060724936</v>
+        <v>55.11828177418973</v>
       </c>
       <c r="I40" t="n">
         <v>55.11828177418973</v>
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>873.2614690596185</v>
+        <v>795.3282360429539</v>
       </c>
       <c r="C41" t="n">
-        <v>571.3456407710837</v>
+        <v>795.3282360429539</v>
       </c>
       <c r="D41" t="n">
-        <v>571.3456407710837</v>
+        <v>504.1092260880802</v>
       </c>
       <c r="E41" t="n">
-        <v>571.3456407710837</v>
+        <v>504.1092260880802</v>
       </c>
       <c r="F41" t="n">
-        <v>571.3456407710837</v>
+        <v>504.1092260880802</v>
       </c>
       <c r="G41" t="n">
-        <v>219.6587194457196</v>
+        <v>152.422304762716</v>
       </c>
       <c r="H41" t="n">
-        <v>36.32523060724936</v>
+        <v>152.422304762716</v>
       </c>
       <c r="I41" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="J41" t="n">
-        <v>88.05730075690222</v>
+        <v>88.05730075690224</v>
       </c>
       <c r="K41" t="n">
         <v>286.3350680031406</v>
@@ -7445,16 +7445,16 @@
         <v>1779.923462487492</v>
       </c>
       <c r="V41" t="n">
-        <v>1515.907263795798</v>
+        <v>1707.022423682639</v>
       </c>
       <c r="W41" t="n">
-        <v>1515.907263795798</v>
+        <v>1421.300457064402</v>
       </c>
       <c r="X41" t="n">
-        <v>1515.907263795798</v>
+        <v>1114.881387455199</v>
       </c>
       <c r="Y41" t="n">
-        <v>1192.814620471863</v>
+        <v>1114.881387455199</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>520.1241474573433</v>
+        <v>520.1241474573435</v>
       </c>
       <c r="C42" t="n">
-        <v>412.7178068280931</v>
+        <v>412.7178068280933</v>
       </c>
       <c r="D42" t="n">
-        <v>330.8300858187187</v>
+        <v>330.8300858187188</v>
       </c>
       <c r="E42" t="n">
-        <v>238.63931946514</v>
+        <v>238.6393194651401</v>
       </c>
       <c r="F42" t="n">
-        <v>159.1514501439018</v>
+        <v>159.1514501439019</v>
       </c>
       <c r="G42" t="n">
-        <v>87.87614542728167</v>
+        <v>87.87614542728176</v>
       </c>
       <c r="H42" t="n">
-        <v>45.50215537994069</v>
+        <v>45.50215537994074</v>
       </c>
       <c r="I42" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="J42" t="n">
         <v>73.44311750521973</v>
       </c>
       <c r="K42" t="n">
-        <v>73.44311750521973</v>
+        <v>263.5043413787027</v>
       </c>
       <c r="L42" t="n">
-        <v>390.4082843017688</v>
+        <v>580.4695081752518</v>
       </c>
       <c r="M42" t="n">
-        <v>812.2709053125757</v>
+        <v>1002.332129186059</v>
       </c>
       <c r="N42" t="n">
-        <v>1261.00598799759</v>
+        <v>1451.067211871072</v>
       </c>
       <c r="O42" t="n">
-        <v>1605.095242888987</v>
+        <v>1695.718441776331</v>
       </c>
       <c r="P42" t="n">
-        <v>1816.261530362468</v>
+        <v>1695.718441776331</v>
       </c>
       <c r="Q42" t="n">
         <v>1816.261530362468</v>
       </c>
       <c r="R42" t="n">
-        <v>1807.522139058683</v>
+        <v>1807.522139058684</v>
       </c>
       <c r="S42" t="n">
-        <v>1686.842741151281</v>
+        <v>1708.745359157012</v>
       </c>
       <c r="T42" t="n">
-        <v>1553.350715218624</v>
+        <v>1508.206644572478</v>
       </c>
       <c r="U42" t="n">
-        <v>1325.153993800335</v>
+        <v>1280.009923154189</v>
       </c>
       <c r="V42" t="n">
-        <v>1157.048574220469</v>
+        <v>1111.904503574323</v>
       </c>
       <c r="W42" t="n">
-        <v>969.8579061441444</v>
+        <v>924.7138354979983</v>
       </c>
       <c r="X42" t="n">
-        <v>829.0530945904884</v>
+        <v>783.9090239443423</v>
       </c>
       <c r="Y42" t="n">
-        <v>688.3394844774114</v>
+        <v>621.2927958255348</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.32523060724936</v>
+        <v>39.34824441806012</v>
       </c>
       <c r="C43" t="n">
-        <v>36.32523060724936</v>
+        <v>39.34824441806012</v>
       </c>
       <c r="D43" t="n">
-        <v>36.32523060724936</v>
+        <v>39.34824441806012</v>
       </c>
       <c r="E43" t="n">
-        <v>36.32523060724936</v>
+        <v>39.34824441806012</v>
       </c>
       <c r="F43" t="n">
-        <v>36.32523060724936</v>
+        <v>39.34824441806012</v>
       </c>
       <c r="G43" t="n">
-        <v>36.32523060724936</v>
+        <v>39.34824441806012</v>
       </c>
       <c r="H43" t="n">
-        <v>36.32523060724936</v>
+        <v>39.34824441806012</v>
       </c>
       <c r="I43" t="n">
-        <v>36.32523060724936</v>
+        <v>39.34824441806012</v>
       </c>
       <c r="J43" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="K43" t="n">
-        <v>119.0198874698753</v>
+        <v>119.0198874698752</v>
       </c>
       <c r="L43" t="n">
-        <v>261.9901474177425</v>
+        <v>261.9901474177424</v>
       </c>
       <c r="M43" t="n">
-        <v>419.5492482389956</v>
+        <v>419.5492482389955</v>
       </c>
       <c r="N43" t="n">
-        <v>580.3590576399539</v>
+        <v>580.3590576399538</v>
       </c>
       <c r="O43" t="n">
-        <v>717.8930162147436</v>
+        <v>717.8930162147435</v>
       </c>
       <c r="P43" t="n">
-        <v>821.5404934986007</v>
+        <v>821.5404934986005</v>
       </c>
       <c r="Q43" t="n">
-        <v>830.0821128393238</v>
+        <v>830.0821128393236</v>
       </c>
       <c r="R43" t="n">
-        <v>806.5130462476193</v>
+        <v>733.4559016324052</v>
       </c>
       <c r="S43" t="n">
-        <v>653.253559077416</v>
+        <v>733.4559016324052</v>
       </c>
       <c r="T43" t="n">
-        <v>653.253559077416</v>
+        <v>733.4559016324052</v>
       </c>
       <c r="U43" t="n">
-        <v>653.253559077416</v>
+        <v>717.7041920271702</v>
       </c>
       <c r="V43" t="n">
-        <v>465.6157595234059</v>
+        <v>530.0663924731601</v>
       </c>
       <c r="W43" t="n">
-        <v>465.6157595234059</v>
+        <v>307.6959110880763</v>
       </c>
       <c r="X43" t="n">
-        <v>304.6728972772655</v>
+        <v>307.6959110880763</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9270067856122</v>
+        <v>153.950020596423</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>642.5980587361482</v>
+        <v>1784.539279136955</v>
       </c>
       <c r="C44" t="n">
-        <v>642.5980587361482</v>
+        <v>1784.539279136955</v>
       </c>
       <c r="D44" t="n">
-        <v>642.5980587361482</v>
+        <v>1483.570519475238</v>
       </c>
       <c r="E44" t="n">
-        <v>314.1067450829381</v>
+        <v>1155.079205822028</v>
       </c>
       <c r="F44" t="n">
-        <v>314.1067450829381</v>
+        <v>801.3902399774545</v>
       </c>
       <c r="G44" t="n">
-        <v>314.1067450829381</v>
+        <v>439.9535689452475</v>
       </c>
       <c r="H44" t="n">
-        <v>36.32523060724936</v>
+        <v>162.1720544695587</v>
       </c>
       <c r="I44" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="J44" t="n">
-        <v>88.05730075690222</v>
+        <v>88.05730075690224</v>
       </c>
       <c r="K44" t="n">
-        <v>286.3350680031407</v>
+        <v>286.3350680031406</v>
       </c>
       <c r="L44" t="n">
-        <v>584.5927987338378</v>
+        <v>584.5927987338376</v>
       </c>
       <c r="M44" t="n">
         <v>933.0685377569675</v>
@@ -7673,25 +7673,25 @@
         <v>1816.261530362468</v>
       </c>
       <c r="S44" t="n">
-        <v>1816.261530362468</v>
+        <v>1784.539279136955</v>
       </c>
       <c r="T44" t="n">
-        <v>1816.261530362468</v>
+        <v>1784.539279136955</v>
       </c>
       <c r="U44" t="n">
-        <v>1816.261530362468</v>
+        <v>1784.539279136955</v>
       </c>
       <c r="V44" t="n">
-        <v>1583.541495496362</v>
+        <v>1784.539279136955</v>
       </c>
       <c r="W44" t="n">
-        <v>1288.069779171282</v>
+        <v>1784.539279136955</v>
       </c>
       <c r="X44" t="n">
-        <v>971.900959855236</v>
+        <v>1784.539279136955</v>
       </c>
       <c r="Y44" t="n">
-        <v>971.900959855236</v>
+        <v>1784.539279136955</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>588.3723954052433</v>
+        <v>588.3723954052423</v>
       </c>
       <c r="C45" t="n">
-        <v>471.2163050691503</v>
+        <v>471.2163050691494</v>
       </c>
       <c r="D45" t="n">
-        <v>379.578834352933</v>
+        <v>379.5788343529322</v>
       </c>
       <c r="E45" t="n">
-        <v>277.6383182925115</v>
+        <v>277.6383182925108</v>
       </c>
       <c r="F45" t="n">
-        <v>188.4006992644303</v>
+        <v>188.4006992644302</v>
       </c>
       <c r="G45" t="n">
         <v>107.3756448409673</v>
       </c>
       <c r="H45" t="n">
-        <v>55.25190508678351</v>
+        <v>55.25190508678349</v>
       </c>
       <c r="I45" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="J45" t="n">
-        <v>73.44311750521973</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="K45" t="n">
-        <v>73.44311750521973</v>
+        <v>226.3864544807324</v>
       </c>
       <c r="L45" t="n">
-        <v>342.4156769577389</v>
+        <v>543.3516212772814</v>
       </c>
       <c r="M45" t="n">
-        <v>764.2782979685458</v>
+        <v>965.2142422880883</v>
       </c>
       <c r="N45" t="n">
-        <v>1213.01338065356</v>
+        <v>1413.949324973102</v>
       </c>
       <c r="O45" t="n">
-        <v>1557.102635544957</v>
+        <v>1436.55954695882</v>
       </c>
       <c r="P45" t="n">
-        <v>1816.261530362468</v>
+        <v>1695.718441776331</v>
       </c>
       <c r="Q45" t="n">
         <v>1816.261530362468</v>
@@ -7752,25 +7752,25 @@
         <v>1797.772389351841</v>
       </c>
       <c r="S45" t="n">
-        <v>1689.245859743326</v>
+        <v>1689.245859743327</v>
       </c>
       <c r="T45" t="n">
         <v>1546.004084103827</v>
       </c>
       <c r="U45" t="n">
-        <v>1375.104301630572</v>
+        <v>1375.104301630571</v>
       </c>
       <c r="V45" t="n">
         <v>1197.249132343863</v>
       </c>
       <c r="W45" t="n">
-        <v>1000.308714560696</v>
+        <v>1000.308714560695</v>
       </c>
       <c r="X45" t="n">
-        <v>849.7541533001972</v>
+        <v>849.7541533001963</v>
       </c>
       <c r="Y45" t="n">
-        <v>699.2907934802773</v>
+        <v>699.2907934802763</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="C46" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="D46" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="E46" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="F46" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="G46" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="H46" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="I46" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="J46" t="n">
-        <v>36.32523060724936</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="K46" t="n">
         <v>109.4641577821986</v>
@@ -7828,28 +7828,28 @@
         <v>764.2061153725409</v>
       </c>
       <c r="R46" t="n">
-        <v>657.8301544587798</v>
+        <v>764.2061153725409</v>
       </c>
       <c r="S46" t="n">
-        <v>657.8301544587798</v>
+        <v>764.2061153725409</v>
       </c>
       <c r="T46" t="n">
-        <v>657.8301544587798</v>
+        <v>697.728517266969</v>
       </c>
       <c r="U46" t="n">
-        <v>657.8301544587798</v>
+        <v>465.8330109600288</v>
       </c>
       <c r="V46" t="n">
-        <v>657.8301544587798</v>
+        <v>268.445461699176</v>
       </c>
       <c r="W46" t="n">
-        <v>425.7099233668532</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="X46" t="n">
-        <v>255.0173114138699</v>
+        <v>36.32523060724937</v>
       </c>
       <c r="Y46" t="n">
-        <v>91.52167121537386</v>
+        <v>36.32523060724937</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7985,13 @@
         <v>251.0691524851223</v>
       </c>
       <c r="M2" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N2" t="n">
-        <v>244.097508686872</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8061,16 +8061,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>156.8184790122994</v>
       </c>
       <c r="N3" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>149.2771449294653</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>234.7742961352617</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N5" t="n">
         <v>244.715801111726</v>
@@ -8231,7 +8231,7 @@
         <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N6" t="n">
-        <v>146.0261571736144</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O6" t="n">
         <v>157.8989819595795</v>
       </c>
       <c r="P6" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q6" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,10 +8383,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N7" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>234.7742961352617</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
         <v>244.715801111726</v>
@@ -8468,7 +8468,7 @@
         <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,13 +8535,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>156.8184790122994</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>146.6444495984684</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O9" t="n">
         <v>157.8989819595795</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M10" t="n">
         <v>154.2285214627401</v>
@@ -8623,7 +8623,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48420279693917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>200.6022686063212</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>464.6881673614804</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>46.29741534602543</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>295.4669870528619</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>269.9853874843512</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.31659219429687</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>222.4129612478303</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>50.67351015542982</v>
       </c>
       <c r="M18" t="n">
-        <v>365.2626142690521</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>56.68610720810747</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>88.59822029195391</v>
       </c>
       <c r="K21" t="n">
-        <v>72.48420279693917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>200.6022686063212</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>330.9126848442366</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>56.68610720810747</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>72.48420279693917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>200.6022686063212</v>
+        <v>50.67351015542982</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>423.6527879852516</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10911,13 +10911,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>378.8999248626058</v>
       </c>
       <c r="O39" t="n">
-        <v>46.29741534602543</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8085616578638</v>
+        <v>56.68610720810747</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>72.48420279693917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>293.419869795782</v>
       </c>
       <c r="P42" t="n">
-        <v>269.9853874843512</v>
+        <v>56.68610720810747</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.31659219429687</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>88.59822029195391</v>
       </c>
       <c r="K45" t="n">
-        <v>72.48420279693917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>322.3629641478735</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>69.13602341240748</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.31659219429687</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.1709610259046</v>
+        <v>231.246019121782</v>
       </c>
       <c r="E11" t="n">
-        <v>88.72332088811342</v>
+        <v>261.4182894774834</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>286.3639651469331</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>294.0341932826902</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>211.2155882917372</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>60.80024458449157</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.27007384814264</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>207.2401778753565</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.7288881226346</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>249.2190200836907</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>265.7258580612752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.1709610259046</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.4182894774834</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>280.1331484762262</v>
+        <v>270.4726174051868</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>294.0341932826902</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>211.2155882917372</v>
       </c>
       <c r="I14" t="n">
         <v>60.80024458449157</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>244.7608111762292</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>234.1709610259046</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>261.4182894774834</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>211.2155882917372</v>
       </c>
       <c r="I17" t="n">
         <v>60.80024458449157</v>
@@ -23780,22 +23780,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.27007384814264</v>
+        <v>21.74166917098568</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>99.27234939546807</v>
       </c>
       <c r="U17" t="n">
-        <v>130.7730552220448</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>207.2401778753565</v>
       </c>
       <c r="W17" t="n">
-        <v>228.7288881226346</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>167.3340880503137</v>
+        <v>249.2190200836907</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>244.7608111762292</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>234.1709610259046</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>261.4182894774834</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>99.27234939546807</v>
       </c>
       <c r="U20" t="n">
-        <v>10.41601837769142</v>
+        <v>130.7730552220448</v>
       </c>
       <c r="V20" t="n">
-        <v>207.2401778753565</v>
+        <v>38.67076569437862</v>
       </c>
       <c r="W20" t="n">
         <v>228.7288881226346</v>
@@ -24035,7 +24035,7 @@
         <v>249.2190200836907</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>265.7258580612752</v>
       </c>
     </row>
     <row r="21">
@@ -24209,22 +24209,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>234.1709610259046</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>286.3639651469331</v>
       </c>
       <c r="G23" t="n">
-        <v>294.0341932826902</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>211.2155882917372</v>
       </c>
       <c r="I23" t="n">
-        <v>60.80024458449157</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.27007384814264</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>99.27234939546807</v>
@@ -24263,7 +24263,7 @@
         <v>130.7730552220448</v>
       </c>
       <c r="V23" t="n">
-        <v>122.7018446749294</v>
+        <v>28.27143021741642</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.2217610687022</v>
+        <v>33.18766889104535</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>244.7608111762291</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>234.1709610259045</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>211.2155882917372</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>99.2723493954681</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>130.7730552220448</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>207.2401778753566</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>228.7288881226346</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>249.2190200836906</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.34441744619582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24683,19 +24683,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>165.5678971239589</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>251.766037267709</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>276.7117129371587</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>156.2602827381143</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,19 +24728,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.61782163836828</v>
+        <v>61.61782163836831</v>
       </c>
       <c r="T29" t="n">
-        <v>89.62009718569371</v>
+        <v>89.62009718569374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>121.1208030122705</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>197.5879256655822</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>219.0766359128603</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25157,19 +25157,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>159.9688828934877</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>195.0420677121253</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>210.171584079234</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>144.8393665263791</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25391,16 +25391,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>178.3845894108711</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>167.7947392605465</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>219.987743381575</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25439,16 +25439,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.893852082784587</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.93776985141109</v>
       </c>
       <c r="U38" t="n">
-        <v>64.39683345668675</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.62637376735159</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25628,13 +25628,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>298.8966700056495</v>
       </c>
       <c r="D41" t="n">
-        <v>288.3068198553249</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>315.5541483069037</v>
+        <v>315.5541483069038</v>
       </c>
       <c r="F41" t="n">
         <v>340.4998239763534</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>83.851293171072</v>
+        <v>265.3514471211575</v>
       </c>
       <c r="I41" t="n">
-        <v>114.9361034139119</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25676,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>125.4059326775629</v>
+        <v>125.405932677563</v>
       </c>
       <c r="T41" t="n">
         <v>153.4082082248884</v>
       </c>
       <c r="U41" t="n">
-        <v>184.9089140514651</v>
+        <v>184.9089140514652</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>189.2040082879727</v>
       </c>
       <c r="W41" t="n">
-        <v>282.8647469520549</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>303.354878913111</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>319.8617168906956</v>
       </c>
     </row>
     <row r="42">
@@ -25789,25 +25789,25 @@
         <v>100.8705993332698</v>
       </c>
       <c r="D43" t="n">
-        <v>82.23925125285427</v>
+        <v>82.23925125285432</v>
       </c>
       <c r="E43" t="n">
-        <v>80.05774088121109</v>
+        <v>80.05774088121113</v>
       </c>
       <c r="F43" t="n">
-        <v>79.04482625757316</v>
+        <v>79.04482625757321</v>
       </c>
       <c r="G43" t="n">
-        <v>101.2754340474343</v>
+        <v>101.2754340474344</v>
       </c>
       <c r="H43" t="n">
-        <v>92.83405594515689</v>
+        <v>92.83405594515693</v>
       </c>
       <c r="I43" t="n">
-        <v>78.86986871586075</v>
+        <v>78.86986871586079</v>
       </c>
       <c r="J43" t="n">
-        <v>2.992783672702604</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>72.32657316906166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>151.7268922985013</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1195306950762</v>
+        <v>160.1195306950763</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9242990340965</v>
+        <v>204.3301065249138</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>220.1467765712329</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>159.3334336236791</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>326.0098721078969</v>
       </c>
       <c r="C44" t="n">
-        <v>308.5489222154239</v>
+        <v>308.5489222154238</v>
       </c>
       <c r="D44" t="n">
-        <v>297.9590720650992</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>350.1520761861277</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>357.8223043218849</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>124.5883556236863</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25910,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>45.6269394060006</v>
+        <v>45.62693940600059</v>
       </c>
       <c r="S44" t="n">
-        <v>135.0581848873373</v>
+        <v>103.6531561740788</v>
       </c>
       <c r="T44" t="n">
-        <v>163.0604604346628</v>
+        <v>163.0604604346627</v>
       </c>
       <c r="U44" t="n">
         <v>194.5611662612395</v>
       </c>
       <c r="V44" t="n">
-        <v>40.63545439710649</v>
+        <v>271.0282889145512</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>292.5169991618293</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>313.0071311228853</v>
       </c>
       <c r="Y44" t="n">
         <v>329.5139691004699</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.46353442431035</v>
+        <v>123.1080106263536</v>
       </c>
       <c r="C46" t="n">
         <v>110.5228515430441</v>
       </c>
       <c r="D46" t="n">
-        <v>91.89150346262866</v>
+        <v>91.89150346262865</v>
       </c>
       <c r="E46" t="n">
-        <v>89.70999309098548</v>
+        <v>89.70999309098546</v>
       </c>
       <c r="F46" t="n">
-        <v>88.69707846734755</v>
+        <v>88.69707846734754</v>
       </c>
       <c r="G46" t="n">
         <v>110.9276862572087</v>
@@ -26041,10 +26041,10 @@
         <v>102.4863081549313</v>
       </c>
       <c r="I46" t="n">
-        <v>88.52212092563514</v>
+        <v>88.52212092563512</v>
       </c>
       <c r="J46" t="n">
-        <v>12.64503588247699</v>
+        <v>12.64503588247698</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26065,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.024353885811607</v>
+        <v>1.024353885811593</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>105.3122013046235</v>
       </c>
       <c r="S46" t="n">
         <v>161.3791445082756</v>
       </c>
       <c r="T46" t="n">
-        <v>169.7717829048506</v>
+        <v>103.9589607803344</v>
       </c>
       <c r="U46" t="n">
-        <v>229.5765512438709</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>195.4136737682443</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>168.9856858334534</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>161.8606837965111</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656090.7204079881</v>
+        <v>656090.7204079879</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656090.7204079879</v>
+        <v>656090.7204079881</v>
       </c>
     </row>
     <row r="11">
@@ -26317,40 +26317,40 @@
         <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>696124.1987620416</v>
+        <v>696124.1987620415</v>
       </c>
       <c r="F2" t="n">
         <v>696124.1987620402</v>
       </c>
       <c r="G2" t="n">
+        <v>696124.1987620402</v>
+      </c>
+      <c r="H2" t="n">
         <v>696124.1987620405</v>
       </c>
-      <c r="H2" t="n">
-        <v>696124.1987620402</v>
-      </c>
       <c r="I2" t="n">
-        <v>723676.5986385422</v>
+        <v>723676.598638542</v>
       </c>
       <c r="J2" t="n">
-        <v>723676.5986385422</v>
+        <v>723676.5986385415</v>
       </c>
       <c r="K2" t="n">
-        <v>734913.2680485506</v>
+        <v>734913.2680485508</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.725617677</v>
       </c>
       <c r="M2" t="n">
-        <v>772963.3257411746</v>
+        <v>772963.3257411749</v>
       </c>
       <c r="N2" t="n">
-        <v>772963.3257411749</v>
+        <v>772963.3257411747</v>
       </c>
       <c r="O2" t="n">
-        <v>600107.5225264037</v>
+        <v>600107.5225264034</v>
       </c>
       <c r="P2" t="n">
         <v>582732.022655103</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5128.299304284603</v>
+        <v>5128.299304284621</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24326.13558956796</v>
+        <v>24326.13558956798</v>
       </c>
       <c r="J3" t="n">
         <v>100413.5339302327</v>
       </c>
       <c r="K3" t="n">
-        <v>7721.801767819511</v>
+        <v>7721.801767819466</v>
       </c>
       <c r="L3" t="n">
-        <v>45379.17564446695</v>
+        <v>45379.17564446697</v>
       </c>
       <c r="M3" t="n">
-        <v>86544.52181493405</v>
+        <v>86544.52181493409</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392953.9523133369</v>
+        <v>391333.4803588955</v>
       </c>
       <c r="C4" t="n">
-        <v>392953.9523133369</v>
+        <v>391333.4803588954</v>
       </c>
       <c r="D4" t="n">
-        <v>392953.9523133369</v>
+        <v>391333.4803588955</v>
       </c>
       <c r="E4" t="n">
-        <v>228631.0560496323</v>
+        <v>226140.7707489622</v>
       </c>
       <c r="F4" t="n">
-        <v>228631.0560496323</v>
+        <v>226140.7707489622</v>
       </c>
       <c r="G4" t="n">
-        <v>228631.0560496323</v>
+        <v>226140.7707489622</v>
       </c>
       <c r="H4" t="n">
-        <v>228631.0560496323</v>
+        <v>226140.7707489622</v>
       </c>
       <c r="I4" t="n">
-        <v>240129.3568284065</v>
+        <v>237527.8984475081</v>
       </c>
       <c r="J4" t="n">
-        <v>240129.3568284065</v>
+        <v>237527.8984475081</v>
       </c>
       <c r="K4" t="n">
-        <v>246658.7006502138</v>
+        <v>244057.2422693154</v>
       </c>
       <c r="L4" t="n">
-        <v>284858.7129814373</v>
+        <v>282257.2546005389</v>
       </c>
       <c r="M4" t="n">
-        <v>273360.4122026631</v>
+        <v>270870.1269019929</v>
       </c>
       <c r="N4" t="n">
-        <v>273360.4122026631</v>
+        <v>270870.1269019929</v>
       </c>
       <c r="O4" t="n">
-        <v>172289.9630542971</v>
+        <v>169799.677753627</v>
       </c>
       <c r="P4" t="n">
-        <v>162097.7738707107</v>
+        <v>159607.4885700406</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>41840.6185561877</v>
+        <v>41840.61855618769</v>
       </c>
       <c r="F5" t="n">
-        <v>41840.6185561877</v>
+        <v>41840.61855618769</v>
       </c>
       <c r="G5" t="n">
-        <v>41840.6185561877</v>
+        <v>41840.61855618769</v>
       </c>
       <c r="H5" t="n">
-        <v>41840.6185561877</v>
+        <v>41840.61855618769</v>
       </c>
       <c r="I5" t="n">
-        <v>47402.52996538717</v>
+        <v>47402.52996538716</v>
       </c>
       <c r="J5" t="n">
         <v>47402.52996538716</v>
       </c>
       <c r="K5" t="n">
-        <v>48213.98515641069</v>
+        <v>48213.98515641068</v>
       </c>
       <c r="L5" t="n">
         <v>52982.71255297905</v>
@@ -26509,7 +26509,7 @@
         <v>37289.47104025717</v>
       </c>
       <c r="P5" t="n">
-        <v>36478.01584923363</v>
+        <v>36478.01584923365</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>367875.4675591349</v>
+        <v>369495.9395135763</v>
       </c>
       <c r="C6" t="n">
-        <v>373003.7668634194</v>
+        <v>374624.2388178609</v>
       </c>
       <c r="D6" t="n">
-        <v>373003.7668634189</v>
+        <v>374624.2388178608</v>
       </c>
       <c r="E6" t="n">
-        <v>47061.37911088135</v>
+        <v>49551.66441155135</v>
       </c>
       <c r="F6" t="n">
-        <v>425652.5241562202</v>
+        <v>428142.8094568903</v>
       </c>
       <c r="G6" t="n">
-        <v>425652.5241562205</v>
+        <v>428142.8094568903</v>
       </c>
       <c r="H6" t="n">
-        <v>425652.5241562202</v>
+        <v>428142.8094568906</v>
       </c>
       <c r="I6" t="n">
-        <v>411818.5762551806</v>
+        <v>414420.0346360788</v>
       </c>
       <c r="J6" t="n">
-        <v>335731.177914516</v>
+        <v>338332.6362954136</v>
       </c>
       <c r="K6" t="n">
-        <v>432318.7804741065</v>
+        <v>434920.2388550053</v>
       </c>
       <c r="L6" t="n">
-        <v>417295.1244387935</v>
+        <v>419896.5828196921</v>
       </c>
       <c r="M6" t="n">
-        <v>365637.5905797979</v>
+        <v>368127.8758804682</v>
       </c>
       <c r="N6" t="n">
-        <v>452182.1123947322</v>
+        <v>454672.3976954022</v>
       </c>
       <c r="O6" t="n">
-        <v>390528.0884318494</v>
+        <v>393018.3737325192</v>
       </c>
       <c r="P6" t="n">
-        <v>384156.2329351587</v>
+        <v>386646.5182358287</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>186.8883023601364</v>
       </c>
       <c r="O2" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="P2" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
     </row>
     <row r="3">
@@ -26802,16 +26802,16 @@
         <v>454.065382590617</v>
       </c>
       <c r="G4" t="n">
-        <v>454.065382590617</v>
+        <v>454.0653825906169</v>
       </c>
       <c r="H4" t="n">
-        <v>454.065382590617</v>
+        <v>454.0653825906169</v>
       </c>
       <c r="I4" t="n">
         <v>545.5441886629767</v>
       </c>
       <c r="J4" t="n">
-        <v>545.5441886629767</v>
+        <v>545.5441886629766</v>
       </c>
       <c r="K4" t="n">
         <v>545.5441886629767</v>
@@ -26820,7 +26820,7 @@
         <v>545.5441886629767</v>
       </c>
       <c r="M4" t="n">
-        <v>454.065382590617</v>
+        <v>454.0653825906169</v>
       </c>
       <c r="N4" t="n">
         <v>454.065382590617</v>
@@ -26932,10 +26932,10 @@
         <v>120.5120805947784</v>
       </c>
       <c r="K2" t="n">
-        <v>9.652252209774389</v>
+        <v>9.652252209774332</v>
       </c>
       <c r="L2" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558372</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.4788060723597</v>
+        <v>91.47880607235976</v>
       </c>
       <c r="J4" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513494</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>347.2838390031221</v>
+        <v>347.2838390031223</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>120.5120805947784</v>
       </c>
       <c r="P2" t="n">
-        <v>9.652252209774389</v>
+        <v>9.652252209774332</v>
       </c>
     </row>
     <row r="3">
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>198.5612458081962</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.6010260184174</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9352011409185</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>132.3371525163108</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533628003</v>
+        <v>76.66457297434199</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>164.5292426668022</v>
       </c>
       <c r="C4" t="n">
-        <v>153.7681698952969</v>
+        <v>151.9440835834928</v>
       </c>
       <c r="D4" t="n">
-        <v>133.3127355030773</v>
+        <v>135.1368218148814</v>
       </c>
       <c r="E4" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>203.2819158369597</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.4311041483455</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>349.9701542558725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>332.8721966541476</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>195.2077976476736</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S6" t="n">
-        <v>158.2045199005069</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T6" t="n">
-        <v>184.8619911796866</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>192.2943340001465</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>164.5292426668022</v>
       </c>
       <c r="C7" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>131.1312251314341</v>
@@ -27819,10 +27819,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>210.5379468336413</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.1060021487638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>368.4517188689308</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>391.5733082265764</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9879375816198</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>354.428363163334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,13 +27938,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>144.16642925207</v>
+        <v>144.9130205783279</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>122.0407796480756</v>
       </c>
       <c r="H9" t="n">
         <v>96.93270672136141</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>236.3922456457846</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28053,7 +28053,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,16 +28062,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>214.4669382249506</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>272.8403781531599</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28169,10 +28169,10 @@
         <v>120.5120805947784</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="D12" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>120.5120805947784</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>46.20704155679472</v>
       </c>
       <c r="H12" t="n">
         <v>108.3264719122257</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>75.4613772903225</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,19 +28217,19 @@
         <v>75.02821915610471</v>
       </c>
       <c r="S12" t="n">
-        <v>1.156338252339083</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>120.5120805947784</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>120.5120805947784</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>34.02143287424236</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>75.4613772903225</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,19 +28454,19 @@
         <v>75.02821915610471</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>120.5120805947784</v>
-      </c>
-      <c r="T15" t="n">
-        <v>120.5120805947784</v>
-      </c>
-      <c r="U15" t="n">
-        <v>109.4828101645647</v>
       </c>
       <c r="V15" t="n">
         <v>120.5120805947784</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28649,67 +28649,67 @@
         <v>120.5120805947784</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7231801181213484</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>63.99894872589127</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>120.5120805947784</v>
       </c>
-      <c r="H18" t="n">
-        <v>108.3264719122257</v>
-      </c>
-      <c r="I18" t="n">
-        <v>75.4613772903225</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>120.5120805947784</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>120.5120805947784</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28755,13 +28755,13 @@
         <v>120.5120805947784</v>
       </c>
       <c r="N19" t="n">
-        <v>120.512080594778</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="O19" t="n">
         <v>120.5120805947784</v>
       </c>
       <c r="P19" t="n">
-        <v>120.5120805947784</v>
+        <v>120.512080594778</v>
       </c>
       <c r="Q19" t="n">
         <v>120.5120805947784</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="F21" t="n">
         <v>120.5120805947784</v>
       </c>
       <c r="G21" t="n">
-        <v>109.4828101645648</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.02821915610471</v>
+        <v>63.99894872589105</v>
       </c>
       <c r="S21" t="n">
         <v>120.5120805947784</v>
       </c>
       <c r="T21" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29059,31 +29059,31 @@
         <v>120.5120805947784</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>120.5120805947784</v>
       </c>
-      <c r="K23" t="n">
+      <c r="O23" t="n">
         <v>120.5120805947784</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
+        <v>120.5120805947784</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>103.0337780900272</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>120.5120805947784</v>
       </c>
       <c r="S23" t="n">
         <v>120.5120805947784</v>
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>120.5120805947784</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>108.3264719122257</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>75.4613772903225</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,13 +29165,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>7.248471296842922</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="U24" t="n">
-        <v>70.5242399046129</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29296,7 +29296,7 @@
         <v>120.5120805947784</v>
       </c>
       <c r="J26" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>120.5120805947784</v>
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>103.033778090027</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29320,7 +29320,7 @@
         <v>120.5120805947784</v>
       </c>
       <c r="R26" t="n">
-        <v>103.0337780900272</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="S26" t="n">
         <v>120.5120805947784</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>116.0081013432868</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>108.3264719122257</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>75.4613772903225</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,7 +29402,7 @@
         <v>75.02821915610471</v>
       </c>
       <c r="S27" t="n">
-        <v>52.73233273551632</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29414,13 +29414,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>120.5120805947784</v>
       </c>
       <c r="Y27" t="n">
-        <v>120.5120805947784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29533,19 +29533,19 @@
         <v>130.1643328045527</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>101.8904453036727</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>130.1643328045527</v>
       </c>
       <c r="L29" t="n">
-        <v>74.07702146070409</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>130.1643328045527</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29557,7 +29557,7 @@
         <v>130.1643328045527</v>
       </c>
       <c r="R29" t="n">
-        <v>130.1643328045527</v>
+        <v>102.3509089615843</v>
       </c>
       <c r="S29" t="n">
         <v>130.1643328045527</v>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>108.8892056062908</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29600,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>130.1643328045527</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>108.3264719122257</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>75.4613772903225</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>75.02821915610471</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>108.4560474720727</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>130.1643328045527</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>130.1643328045527</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29700,7 +29700,7 @@
         <v>130.1643328045527</v>
       </c>
       <c r="M31" t="n">
-        <v>25.53893549708799</v>
+        <v>25.53893549708823</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29776,10 +29776,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>186.8883023601364</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>169.7548313717749</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,13 +29788,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>186.8883023601364</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>85.21743797322277</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>186.8883023601364</v>
+        <v>102.3509089615843</v>
       </c>
       <c r="S32" t="n">
         <v>186.8883023601364</v>
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>77.14977044662567</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>108.3264719122257</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>109.9127224467257</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>186.8883023601364</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>186.8883023601364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29946,13 +29946,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>18.98287996660645</v>
       </c>
       <c r="Q34" t="n">
         <v>57.7483234413953</v>
       </c>
       <c r="R34" t="n">
-        <v>173.9627286486143</v>
+        <v>162.0361708602072</v>
       </c>
       <c r="S34" t="n">
         <v>186.8883023601364</v>
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30077,13 +30077,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>40.78461270512177</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>108.3264719122257</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>75.4613772903225</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>75.02821915610471</v>
       </c>
       <c r="S36" t="n">
-        <v>164.1652338680127</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>186.8883023601364</v>
+        <v>186.6195297652088</v>
       </c>
       <c r="Y36" t="n">
         <v>186.8883023601364</v>
@@ -30144,7 +30144,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>186.2297010652342</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30189,7 +30189,7 @@
         <v>57.7483234413953</v>
       </c>
       <c r="R37" t="n">
-        <v>181.0190508268137</v>
+        <v>162.0361708602072</v>
       </c>
       <c r="S37" t="n">
         <v>186.8883023601364</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30308,16 +30308,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>130.6105365601618</v>
+        <v>97.48251505330038</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.938773434812</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>108.3264719122257</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>75.02821915610471</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>164.1652338680127</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>186.8883023601364</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>186.2297010652343</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30399,7 +30399,7 @@
         <v>159.210277710515</v>
       </c>
       <c r="I40" t="n">
-        <v>164.2289704478253</v>
+        <v>145.2460904812188</v>
       </c>
       <c r="J40" t="n">
         <v>69.36900543806068</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="C41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="D41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="E41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="F41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="G41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="H41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="I41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="S41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="T41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="U41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="V41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="W41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="X41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="Y41" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="C42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="D42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="E42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="F42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="G42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="H42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="I42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="S42" t="n">
-        <v>44.69262993968471</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="T42" t="n">
-        <v>66.37622176535808</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="W42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="X42" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="Y42" t="n">
-        <v>66.37622176535808</v>
+        <v>44.69262993968493</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="C43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="D43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="E43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="F43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="G43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="H43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="I43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="J43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="K43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="L43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="M43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="N43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="O43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="P43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="S43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="T43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="U43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="V43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="W43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="X43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.37622176535808</v>
+        <v>66.37622176535804</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="C44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="D44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="E44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="F44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="G44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="H44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="I44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="S44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="T44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="U44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="V44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="W44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="X44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="Y44" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
     </row>
     <row r="45">
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="C45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="D45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="E45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="F45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="G45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="H45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="I45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="S45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="T45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="U45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="V45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="W45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="X45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="Y45" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="C46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="D46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="E46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="F46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="G46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="H46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="I46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="J46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="K46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="L46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="M46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="N46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="O46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="P46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="Q46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="R46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="S46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="T46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="U46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="V46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="W46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="X46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
       <c r="Y46" t="n">
-        <v>56.72396955558369</v>
+        <v>56.72396955558371</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34705,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M2" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N3" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>15.30273751513505</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M5" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>15.30273751513505</v>
@@ -34951,7 +34951,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N6" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O6" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P6" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,10 +35103,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O7" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
         <v>15.30273751513505</v>
@@ -35188,7 +35188,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N9" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
         <v>15.30273751513505</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M10" t="n">
         <v>15.30273751513505</v>
@@ -35343,7 +35343,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>37.49281504845492</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>191.9810342156394</v>
       </c>
       <c r="L12" t="n">
-        <v>149.9287584508914</v>
+        <v>320.1668351480293</v>
       </c>
       <c r="M12" t="n">
         <v>426.1238596068756</v>
       </c>
       <c r="N12" t="n">
-        <v>453.2677602878927</v>
+        <v>438.6135533058196</v>
       </c>
       <c r="O12" t="n">
-        <v>347.5649039307041</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>261.7766614318297</v>
@@ -35732,7 +35732,7 @@
         <v>320.1668351480293</v>
       </c>
       <c r="M15" t="n">
-        <v>426.1238596068756</v>
+        <v>255.8857829097376</v>
       </c>
       <c r="N15" t="n">
         <v>453.2677602878927</v>
@@ -35741,10 +35741,10 @@
         <v>347.5649039307041</v>
       </c>
       <c r="P15" t="n">
-        <v>213.2992802762438</v>
+        <v>261.7766614318297</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>121.7606955415522</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>37.49281504845492</v>
       </c>
       <c r="K18" t="n">
-        <v>191.9810342156394</v>
+        <v>149.9287584508912</v>
       </c>
       <c r="L18" t="n">
-        <v>320.1668351480293</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>325.6814101259278</v>
+        <v>426.1238596068756</v>
       </c>
       <c r="N18" t="n">
         <v>453.2677602878927</v>
@@ -35978,7 +35978,7 @@
         <v>347.5649039307041</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>261.7766614318297</v>
       </c>
       <c r="Q18" t="n">
         <v>121.7606955415522</v>
@@ -36051,13 +36051,13 @@
         <v>213.2864657195749</v>
       </c>
       <c r="N19" t="n">
-        <v>216.5700097394788</v>
+        <v>216.5700097394792</v>
       </c>
       <c r="O19" t="n">
         <v>193.0590493090059</v>
       </c>
       <c r="P19" t="n">
-        <v>158.8302803282658</v>
+        <v>158.8302803282654</v>
       </c>
       <c r="Q19" t="n">
         <v>62.76375715338308</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>37.49281504845492</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>191.9810342156394</v>
       </c>
       <c r="L21" t="n">
-        <v>149.9287584508914</v>
+        <v>320.1668351480293</v>
       </c>
       <c r="M21" t="n">
         <v>426.1238596068756</v>
@@ -36212,10 +36212,10 @@
         <v>453.2677602878927</v>
       </c>
       <c r="O21" t="n">
-        <v>347.5649039307041</v>
+        <v>284.6152694982111</v>
       </c>
       <c r="P21" t="n">
-        <v>261.7766614318297</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>121.7606955415522</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>172.766696907559</v>
+        <v>52.25461631278067</v>
       </c>
       <c r="K23" t="n">
-        <v>320.7926535707767</v>
+        <v>200.2805729759984</v>
       </c>
       <c r="L23" t="n">
         <v>301.2704350815121</v>
@@ -36367,19 +36367,19 @@
         <v>351.9956959829594</v>
       </c>
       <c r="N23" t="n">
-        <v>342.9115588433128</v>
+        <v>463.4236394380911</v>
       </c>
       <c r="O23" t="n">
-        <v>278.1575825719323</v>
+        <v>398.6696631667107</v>
       </c>
       <c r="P23" t="n">
-        <v>302.3799071822235</v>
+        <v>319.8582096869746</v>
       </c>
       <c r="Q23" t="n">
         <v>71.69886343750845</v>
       </c>
       <c r="R23" t="n">
-        <v>18.16117163319409</v>
+        <v>0.6828691284428916</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>172.766696907559</v>
+        <v>52.25461631278067</v>
       </c>
       <c r="K26" t="n">
-        <v>320.7926535707767</v>
+        <v>320.7926535707768</v>
       </c>
       <c r="L26" t="n">
         <v>301.2704350815121</v>
       </c>
       <c r="M26" t="n">
-        <v>351.9956959829594</v>
+        <v>455.0294740729864</v>
       </c>
       <c r="N26" t="n">
         <v>342.9115588433128</v>
@@ -36616,7 +36616,7 @@
         <v>192.2109440322868</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6828691284428916</v>
+        <v>18.1611716331941</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>51.14307515671767</v>
+        <v>51.14307515671771</v>
       </c>
       <c r="K28" t="n">
-        <v>137.6658152563151</v>
+        <v>137.6658152563152</v>
       </c>
       <c r="L28" t="n">
         <v>198.550262817165</v>
@@ -36771,7 +36771,7 @@
         <v>158.8302803282658</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.76375715338305</v>
+        <v>62.7637571533831</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>52.25461631278067</v>
+        <v>154.1450616164534</v>
       </c>
       <c r="K29" t="n">
-        <v>200.2805729759984</v>
+        <v>330.4449057805511</v>
       </c>
       <c r="L29" t="n">
-        <v>375.3474565422162</v>
+        <v>301.2704350815121</v>
       </c>
       <c r="M29" t="n">
         <v>351.9956959829594</v>
       </c>
       <c r="N29" t="n">
-        <v>473.0758916478655</v>
+        <v>342.9115588433128</v>
       </c>
       <c r="O29" t="n">
         <v>278.1575825719323</v>
@@ -36853,7 +36853,7 @@
         <v>201.8631962420612</v>
       </c>
       <c r="R29" t="n">
-        <v>27.81342384296845</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.79532736649206</v>
+        <v>60.79532736649203</v>
       </c>
       <c r="K31" t="n">
         <v>147.3180674660895</v>
@@ -36996,19 +36996,19 @@
         <v>208.2025150269394</v>
       </c>
       <c r="M31" t="n">
-        <v>118.3133206218845</v>
+        <v>118.3133206218847</v>
       </c>
       <c r="N31" t="n">
         <v>96.05792914470084</v>
       </c>
       <c r="O31" t="n">
-        <v>202.7113015187803</v>
+        <v>202.7113015187802</v>
       </c>
       <c r="P31" t="n">
-        <v>168.4825325380402</v>
+        <v>168.4825325380401</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.41600936315744</v>
+        <v>72.41600936315741</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>200.2805729759984</v>
       </c>
       <c r="L32" t="n">
-        <v>301.2704350815121</v>
+        <v>488.1587374416486</v>
       </c>
       <c r="M32" t="n">
-        <v>351.9956959829594</v>
+        <v>521.7505273547343</v>
       </c>
       <c r="N32" t="n">
         <v>342.9115588433128</v>
@@ -37084,13 +37084,13 @@
         <v>278.1575825719323</v>
       </c>
       <c r="P32" t="n">
-        <v>386.2344314523327</v>
+        <v>199.3461290921962</v>
       </c>
       <c r="Q32" t="n">
-        <v>156.9163014107312</v>
+        <v>71.69886343750845</v>
       </c>
       <c r="R32" t="n">
-        <v>84.53739339855214</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.056322178199139</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>72.54696871422752</v>
       </c>
       <c r="P34" t="n">
-        <v>38.31819973348744</v>
+        <v>57.30107970009389</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.92655778840704</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>37.49281504845492</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>191.9810342156394</v>
       </c>
       <c r="L36" t="n">
-        <v>149.9287584508914</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>426.1238596068756</v>
+        <v>384.0715838421273</v>
       </c>
       <c r="N36" t="n">
         <v>453.2677602878927</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>18.98287996660639</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.98287996660642</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>426.1238596068756</v>
       </c>
       <c r="N39" t="n">
-        <v>453.2677602878927</v>
+        <v>352.825310806945</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>347.5649039307041</v>
       </c>
       <c r="P39" t="n">
-        <v>247.1224544497564</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>121.7606955415522</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>18.98287996660644</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>18.98287996660644</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>199.3461290921962</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.69886343750854</v>
+        <v>71.69886343750876</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>37.49281504845492</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>191.9810342156394</v>
       </c>
       <c r="L42" t="n">
         <v>320.1668351480293</v>
@@ -37871,13 +37871,13 @@
         <v>453.2677602878927</v>
       </c>
       <c r="O42" t="n">
-        <v>347.5649039307041</v>
+        <v>247.1224544497566</v>
       </c>
       <c r="P42" t="n">
-        <v>213.2992802762438</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>121.7606955415522</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>83.52995642689487</v>
+        <v>83.52995642689481</v>
       </c>
       <c r="L43" t="n">
         <v>144.4144039877447</v>
@@ -37956,7 +37956,7 @@
         <v>104.6944214988455</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.627898323962782</v>
+        <v>8.627898323962739</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>52.25461631278067</v>
       </c>
       <c r="K44" t="n">
-        <v>200.2805729759985</v>
+        <v>200.2805729759984</v>
       </c>
       <c r="L44" t="n">
         <v>301.2704350815121</v>
@@ -38035,7 +38035,7 @@
         <v>199.3461290921962</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.69886343750845</v>
+        <v>71.69886343750876</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>37.49281504845492</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>191.9810342156394</v>
       </c>
       <c r="L45" t="n">
-        <v>271.6894539924436</v>
+        <v>320.1668351480293</v>
       </c>
       <c r="M45" t="n">
         <v>426.1238596068756</v>
@@ -38108,13 +38108,13 @@
         <v>453.2677602878927</v>
       </c>
       <c r="O45" t="n">
-        <v>347.5649039307041</v>
+        <v>22.83860806638205</v>
       </c>
       <c r="P45" t="n">
         <v>261.7766614318297</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>121.7606955415522</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>149.4983546803802</v>
       </c>
       <c r="N46" t="n">
-        <v>152.7818987002845</v>
+        <v>152.7818987002846</v>
       </c>
       <c r="O46" t="n">
         <v>129.2709382698112</v>
       </c>
       <c r="P46" t="n">
-        <v>95.04216928907113</v>
+        <v>95.04216928907115</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
